--- a/public/exports/PG206.xlsx
+++ b/public/exports/PG206.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgn9q7D3xRqXhrWh/LiozHgBF7RyQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miIKP94ZDZT+D2YY7DeqHv5rdUqKQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="78">
   <si>
     <t>PG206 (Pind. 1/2022)</t>
   </si>
@@ -30,16 +30,31 @@
     <t>LAPORAN BULANAN INDIVIDU/ KLINIK/ DAERAH/ NEGERI HASIL KERJA JURUTERAPI PERGIGIAN BAGI RAWATAN  AM / ORANG KELAINAN UPAYA(OKU) / BUKAN WARGANEGARA</t>
   </si>
   <si>
-    <t>BAGI BULAN……………..TAHUN…………….</t>
+    <t>BAGI BULAN:</t>
+  </si>
+  <si>
+    <t>TAHUN:</t>
+  </si>
+  <si>
+    <t>Gi-Ret 2.0 (&lt;v2.0.10&gt;)</t>
   </si>
   <si>
     <t>FASILITI:</t>
   </si>
   <si>
+    <t>Maklumat dari &lt;Tarikh Mula&gt; - &lt;Tarikh Akhir&gt;</t>
+  </si>
+  <si>
     <t>DAERAH:</t>
   </si>
   <si>
+    <t>Peratus reten dilaporkan salah =  &lt;bilangan pesakit dengan reten salah/bilangan pesakit di reten*100&gt;%</t>
+  </si>
+  <si>
     <t>NEGERI:</t>
+  </si>
+  <si>
+    <t>Dijana oleh: &lt;Nama Penjana&gt; (&lt;Tarikh dan masa dijana&gt;)</t>
   </si>
   <si>
     <t>NAMA JP:</t>
@@ -214,12 +229,42 @@
     <t>BUKAN 
 WARGANEGARA</t>
   </si>
+  <si>
+    <t>Gi-Ret 2.0</t>
+  </si>
+  <si>
+    <t>v.2.0.8</t>
+  </si>
+  <si>
+    <t>Memaparkan maklumat dari</t>
+  </si>
+  <si>
+    <t>TARIKH MULA - TARIKH AKHIR</t>
+  </si>
+  <si>
+    <t>Tarikh dan masa penjanaan</t>
+  </si>
+  <si>
+    <t>TARIKH DAN MASA</t>
+  </si>
+  <si>
+    <t>Peratus reten dilaporkan salah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> %</t>
+  </si>
+  <si>
+    <t>Dijana oleh</t>
+  </si>
+  <si>
+    <t>NAMA PENJANA (PERANAN)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -329,6 +374,21 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cg omega"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="&quot;cg omega&quot;"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -356,23 +416,116 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="55">
     <border/>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -392,20 +545,41 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
     </border>
     <border>
-      <right/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
     </border>
     <border>
       <left style="thin">
@@ -438,13 +612,25 @@
       </bottom>
     </border>
     <border>
-      <right/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+    </border>
+    <border>
+      <right style="thin">
         <color rgb="FF000000"/>
-      </bottom>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
     </border>
     <border>
       <left style="thin">
@@ -455,46 +641,18 @@
       </right>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left/>
       <right/>
-      <top/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left/>
-      <right/>
     </border>
     <border>
       <left/>
@@ -506,15 +664,22 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
-      <left style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
-      </left>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -528,6 +693,53 @@
       </bottom>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -544,7 +756,9 @@
       </bottom>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -577,10 +791,52 @@
       </bottom>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -597,11 +853,89 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="124">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -634,6 +968,12 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -643,6 +983,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
@@ -667,100 +1010,233 @@
     </xf>
     <xf borderId="8" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="10" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" textRotation="90" wrapText="1"/>
-    </xf>
     <xf borderId="11" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf borderId="15" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="16" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" textRotation="90" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="17" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" textRotation="90" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" textRotation="90" vertical="center"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="19" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" textRotation="90" wrapText="1"/>
+    <xf borderId="20" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="21" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="21" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="22" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="23" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="25" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="26" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="27" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="28" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="29" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="30" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="32" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="33" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="34" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="35" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="36" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="36" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="13" numFmtId="16" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="17" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="24" fillId="2" fontId="13" numFmtId="16" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="24" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="37" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="38" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="39" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="40" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="41" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="42" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="27" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="43" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="28" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="44" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="29" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="45" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="46" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="43" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="47" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="48" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="44" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="45" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="46" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="43" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="43" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="46" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="43" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="43" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="44" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="44" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="44" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="45" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="46" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="43" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="43" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="44" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="49" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="43" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="46" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="43" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="46" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="44" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="50" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="51" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="52" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="53" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="53" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="52" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="54" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="53" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="53" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="53" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="52" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="50" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -974,16 +1450,11 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="16.0" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A17" sqref="A17" pane="bottomLeft"/>
-      <selection activeCell="B17" sqref="B17" pane="bottomRight"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.0"/>
+    <col customWidth="1" min="1" max="1" width="20.71"/>
     <col customWidth="1" min="2" max="2" width="10.71"/>
     <col customWidth="1" min="3" max="3" width="9.71"/>
     <col customWidth="1" min="4" max="18" width="8.0"/>
@@ -1105,133 +1576,169 @@
       <c r="BF4" s="12"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AV5" s="12"/>
-      <c r="AW5" s="12"/>
-      <c r="AX5" s="13"/>
-      <c r="AY5" s="13"/>
-      <c r="AZ5" s="13"/>
-      <c r="BA5" s="13"/>
-      <c r="BB5" s="13"/>
-      <c r="BC5" s="13"/>
-      <c r="BD5" s="12"/>
-      <c r="BE5" s="12"/>
-      <c r="BF5" s="12"/>
-    </row>
-    <row r="6" ht="20.25" customHeight="1">
-      <c r="A6" s="14" t="s">
+      <c r="V5" s="11"/>
+      <c r="X5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="15"/>
-      <c r="AO6" s="15"/>
-      <c r="AP6" s="15"/>
-      <c r="AQ6" s="17"/>
-      <c r="AR6" s="17"/>
-      <c r="AS6" s="17"/>
+      <c r="Z5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="11"/>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV5" s="11"/>
+      <c r="AW5" s="11"/>
+      <c r="AX5" s="11"/>
+      <c r="AY5" s="11"/>
+      <c r="AZ5" s="11"/>
+      <c r="BA5" s="11"/>
+      <c r="BB5" s="11"/>
+      <c r="BC5" s="11"/>
+      <c r="BD5" s="11"/>
+      <c r="BE5" s="11"/>
+      <c r="BF5" s="11"/>
+    </row>
+    <row r="6" ht="20.25" customHeight="1">
+      <c r="A6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="17"/>
+      <c r="AP6" s="17"/>
+      <c r="AQ6" s="19"/>
+      <c r="AR6" s="19"/>
+      <c r="AS6" s="19"/>
       <c r="AT6" s="9"/>
-      <c r="AU6" s="9"/>
+      <c r="AU6" s="20" t="s">
+        <v>8</v>
+      </c>
       <c r="AV6" s="8"/>
       <c r="AW6" s="8"/>
-      <c r="AX6" s="16"/>
-      <c r="AY6" s="16"/>
-      <c r="AZ6" s="16"/>
-      <c r="BA6" s="16"/>
-      <c r="BB6" s="16"/>
-      <c r="BC6" s="16"/>
+      <c r="AX6" s="18"/>
+      <c r="AY6" s="18"/>
+      <c r="AZ6" s="18"/>
+      <c r="BA6" s="18"/>
+      <c r="BB6" s="18"/>
+      <c r="BC6" s="18"/>
       <c r="BD6" s="8"/>
       <c r="BE6" s="8"/>
       <c r="BF6" s="8"/>
     </row>
     <row r="7" ht="15.0" customHeight="1">
-      <c r="A7" s="14" t="s">
-        <v>6</v>
+      <c r="A7" s="16" t="s">
+        <v>9</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
+      <c r="B7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
       <c r="AA7" s="12"/>
       <c r="AB7" s="12"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="18"/>
-      <c r="AK7" s="19"/>
-      <c r="AL7" s="19"/>
-      <c r="AM7" s="19"/>
-      <c r="AN7" s="19"/>
-      <c r="AO7" s="19"/>
-      <c r="AP7" s="19"/>
-      <c r="AQ7" s="18"/>
-      <c r="AR7" s="18"/>
-      <c r="AS7" s="18"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="22"/>
+      <c r="AL7" s="22"/>
+      <c r="AM7" s="22"/>
+      <c r="AN7" s="22"/>
+      <c r="AO7" s="22"/>
+      <c r="AP7" s="22"/>
+      <c r="AQ7" s="21"/>
+      <c r="AR7" s="21"/>
+      <c r="AS7" s="21"/>
       <c r="AT7" s="8"/>
-      <c r="AU7" s="8"/>
+      <c r="AU7" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="AV7" s="8"/>
       <c r="AW7" s="8"/>
       <c r="AX7" s="8"/>
@@ -1245,55 +1752,50 @@
       <c r="BF7" s="8"/>
     </row>
     <row r="8" ht="15.0" customHeight="1">
-      <c r="A8" s="14" t="s">
-        <v>7</v>
+      <c r="A8" s="16" t="s">
+        <v>11</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
+      <c r="B8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
       <c r="AA8" s="12"/>
       <c r="AB8" s="12"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="18"/>
-      <c r="AH8" s="18"/>
-      <c r="AI8" s="18"/>
-      <c r="AJ8" s="18"/>
-      <c r="AK8" s="19"/>
-      <c r="AL8" s="19"/>
-      <c r="AM8" s="19"/>
-      <c r="AN8" s="19"/>
-      <c r="AO8" s="19"/>
-      <c r="AP8" s="19"/>
-      <c r="AQ8" s="18"/>
-      <c r="AR8" s="18"/>
-      <c r="AS8" s="18"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="22"/>
+      <c r="AL8" s="22"/>
+      <c r="AM8" s="22"/>
+      <c r="AN8" s="22"/>
+      <c r="AO8" s="22"/>
+      <c r="AP8" s="22"/>
+      <c r="AQ8" s="21"/>
+      <c r="AR8" s="21"/>
+      <c r="AS8" s="21"/>
       <c r="AT8" s="8"/>
-      <c r="AU8" s="8"/>
+      <c r="AU8" s="20" t="s">
+        <v>12</v>
+      </c>
       <c r="AV8" s="8"/>
       <c r="AW8" s="8"/>
       <c r="AX8" s="8"/>
@@ -1307,53 +1809,46 @@
       <c r="BF8" s="8"/>
     </row>
     <row r="9" ht="15.0" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>8</v>
+      <c r="A9" s="16" t="s">
+        <v>13</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
+      <c r="B9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
       <c r="AA9" s="12"/>
       <c r="AB9" s="12"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="18"/>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="18"/>
-      <c r="AJ9" s="18"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="19"/>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="19"/>
-      <c r="AP9" s="19"/>
-      <c r="AQ9" s="18"/>
-      <c r="AR9" s="18"/>
-      <c r="AS9" s="18"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22"/>
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="22"/>
+      <c r="AQ9" s="21"/>
+      <c r="AR9" s="21"/>
+      <c r="AS9" s="21"/>
       <c r="AT9" s="8"/>
       <c r="AU9" s="8"/>
       <c r="AV9" s="8"/>
@@ -1369,64 +1864,64 @@
       <c r="BF9" s="8"/>
     </row>
     <row r="10" ht="27.0" customHeight="1">
-      <c r="A10" s="20" t="s">
-        <v>9</v>
+      <c r="A10" s="23" t="s">
+        <v>14</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>10</v>
+      <c r="B10" s="24" t="s">
+        <v>15</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23" t="s">
-        <v>11</v>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26" t="s">
+        <v>16</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="26" t="s">
-        <v>12</v>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="29" t="s">
+        <v>17</v>
       </c>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="26" t="s">
-        <v>13</v>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="32" t="s">
+        <v>18</v>
       </c>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="27"/>
-      <c r="AG10" s="27"/>
-      <c r="AH10" s="27"/>
-      <c r="AI10" s="27"/>
-      <c r="AJ10" s="27"/>
-      <c r="AK10" s="27"/>
-      <c r="AL10" s="27"/>
-      <c r="AM10" s="27"/>
-      <c r="AN10" s="27"/>
-      <c r="AO10" s="27"/>
-      <c r="AP10" s="27"/>
-      <c r="AQ10" s="27"/>
-      <c r="AR10" s="27"/>
-      <c r="AS10" s="27"/>
-      <c r="AT10" s="29"/>
-      <c r="AU10" s="30" t="s">
-        <v>14</v>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="30"/>
+      <c r="AG10" s="30"/>
+      <c r="AH10" s="30"/>
+      <c r="AI10" s="30"/>
+      <c r="AJ10" s="30"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="30"/>
+      <c r="AM10" s="30"/>
+      <c r="AN10" s="30"/>
+      <c r="AO10" s="30"/>
+      <c r="AP10" s="30"/>
+      <c r="AQ10" s="30"/>
+      <c r="AR10" s="30"/>
+      <c r="AS10" s="30"/>
+      <c r="AT10" s="31"/>
+      <c r="AU10" s="33" t="s">
+        <v>19</v>
       </c>
       <c r="AV10" s="1"/>
       <c r="AW10" s="1"/>
@@ -1441,85 +1936,85 @@
       <c r="BF10" s="1"/>
     </row>
     <row r="11" ht="23.25" customHeight="1">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="O11" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="21" t="s">
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="36" t="s">
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="S11" s="21" t="s">
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="T11" s="22"/>
-      <c r="U11" s="37" t="s">
+      <c r="N11" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="V11" s="22"/>
-      <c r="W11" s="38" t="s">
+      <c r="O11" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="X11" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y11" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="26" t="s">
+      <c r="P11" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="27"/>
-      <c r="AF11" s="27"/>
-      <c r="AG11" s="27"/>
-      <c r="AH11" s="27"/>
-      <c r="AI11" s="27"/>
-      <c r="AJ11" s="27"/>
-      <c r="AK11" s="27"/>
-      <c r="AL11" s="27"/>
-      <c r="AM11" s="27"/>
-      <c r="AN11" s="27"/>
-      <c r="AO11" s="27"/>
-      <c r="AP11" s="27"/>
-      <c r="AQ11" s="28"/>
-      <c r="AR11" s="26" t="s">
+      <c r="Q11" s="43"/>
+      <c r="R11" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="AS11" s="28"/>
-      <c r="AT11" s="39" t="s">
-        <v>24</v>
+      <c r="S11" s="40" t="s">
+        <v>27</v>
       </c>
-      <c r="AU11" s="31"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="V11" s="39"/>
+      <c r="W11" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="X11" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y11" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="49"/>
+      <c r="AJ11" s="49"/>
+      <c r="AK11" s="49"/>
+      <c r="AL11" s="49"/>
+      <c r="AM11" s="49"/>
+      <c r="AN11" s="49"/>
+      <c r="AO11" s="49"/>
+      <c r="AP11" s="49"/>
+      <c r="AQ11" s="50"/>
+      <c r="AR11" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS11" s="50"/>
+      <c r="AT11" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU11" s="34"/>
       <c r="AV11" s="1"/>
       <c r="AW11" s="1"/>
       <c r="AX11" s="1"/>
@@ -1533,60 +2028,60 @@
       <c r="BF11" s="1"/>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="32"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="32"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="27"/>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH12" s="27"/>
-      <c r="AI12" s="27"/>
-      <c r="AJ12" s="27"/>
-      <c r="AK12" s="27"/>
-      <c r="AL12" s="27"/>
-      <c r="AM12" s="27"/>
-      <c r="AN12" s="28"/>
-      <c r="AO12" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP12" s="22"/>
-      <c r="AQ12" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="AR12" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="AS12" s="42" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="35"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="53"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="AT12" s="43"/>
-      <c r="AU12" s="31"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="50"/>
+      <c r="AG12" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH12" s="49"/>
+      <c r="AI12" s="49"/>
+      <c r="AJ12" s="49"/>
+      <c r="AK12" s="49"/>
+      <c r="AL12" s="49"/>
+      <c r="AM12" s="49"/>
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP12" s="39"/>
+      <c r="AQ12" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR12" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS12" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT12" s="56"/>
+      <c r="AU12" s="34"/>
       <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
       <c r="AX12" s="1"/>
@@ -1600,59 +2095,59 @@
       <c r="BF12" s="1"/>
     </row>
     <row r="13" ht="22.5" customHeight="1">
-      <c r="A13" s="31"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="41" t="s">
-        <v>33</v>
+      <c r="A13" s="34"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="63"/>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="57" t="s">
+        <v>38</v>
       </c>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="28"/>
-      <c r="AG13" s="26" t="s">
-        <v>33</v>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="48" t="s">
+        <v>38</v>
       </c>
-      <c r="AH13" s="27"/>
-      <c r="AI13" s="27"/>
-      <c r="AJ13" s="28"/>
-      <c r="AK13" s="26" t="s">
-        <v>34</v>
+      <c r="AH13" s="49"/>
+      <c r="AI13" s="49"/>
+      <c r="AJ13" s="50"/>
+      <c r="AK13" s="48" t="s">
+        <v>39</v>
       </c>
-      <c r="AL13" s="27"/>
-      <c r="AM13" s="27"/>
-      <c r="AN13" s="28"/>
-      <c r="AO13" s="32"/>
-      <c r="AP13" s="33"/>
-      <c r="AQ13" s="31"/>
-      <c r="AR13" s="31"/>
-      <c r="AS13" s="31"/>
-      <c r="AT13" s="43"/>
-      <c r="AU13" s="31"/>
+      <c r="AL13" s="49"/>
+      <c r="AM13" s="49"/>
+      <c r="AN13" s="50"/>
+      <c r="AO13" s="53"/>
+      <c r="AP13" s="52"/>
+      <c r="AQ13" s="54"/>
+      <c r="AR13" s="54"/>
+      <c r="AS13" s="54"/>
+      <c r="AT13" s="56"/>
+      <c r="AU13" s="34"/>
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
@@ -1666,112 +2161,112 @@
       <c r="BF13" s="1"/>
     </row>
     <row r="14" ht="28.5" customHeight="1">
-      <c r="A14" s="31"/>
-      <c r="B14" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="30" t="s">
+      <c r="A14" s="34"/>
+      <c r="B14" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="48" t="s">
+      <c r="C14" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="48" t="s">
+      <c r="D14" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="48" t="s">
+      <c r="E14" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="48" t="s">
+      <c r="F14" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="L14" s="30" t="s">
+      <c r="G14" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="48">
+      <c r="H14" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="66">
         <v>0.0</v>
       </c>
-      <c r="Q14" s="49" t="s">
-        <v>46</v>
+      <c r="Q14" s="67" t="s">
+        <v>51</v>
       </c>
-      <c r="R14" s="40"/>
-      <c r="S14" s="30" t="s">
-        <v>47</v>
+      <c r="R14" s="55"/>
+      <c r="S14" s="41" t="s">
+        <v>52</v>
       </c>
-      <c r="T14" s="30" t="s">
-        <v>48</v>
+      <c r="T14" s="41" t="s">
+        <v>53</v>
       </c>
-      <c r="U14" s="30" t="s">
-        <v>47</v>
+      <c r="U14" s="41" t="s">
+        <v>52</v>
       </c>
-      <c r="V14" s="30" t="s">
-        <v>48</v>
+      <c r="V14" s="41" t="s">
+        <v>53</v>
       </c>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="30" t="s">
-        <v>47</v>
+      <c r="W14" s="56"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="41" t="s">
+        <v>52</v>
       </c>
-      <c r="Z14" s="30" t="s">
-        <v>48</v>
+      <c r="Z14" s="41" t="s">
+        <v>53</v>
       </c>
-      <c r="AA14" s="30" t="s">
-        <v>47</v>
+      <c r="AA14" s="41" t="s">
+        <v>52</v>
       </c>
-      <c r="AB14" s="30" t="s">
-        <v>48</v>
+      <c r="AB14" s="41" t="s">
+        <v>53</v>
       </c>
-      <c r="AC14" s="41" t="s">
-        <v>49</v>
+      <c r="AC14" s="57" t="s">
+        <v>54</v>
       </c>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="26" t="s">
-        <v>50</v>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="48" t="s">
+        <v>55</v>
       </c>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="26" t="s">
-        <v>49</v>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="48" t="s">
+        <v>54</v>
       </c>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="26" t="s">
-        <v>50</v>
+      <c r="AH14" s="50"/>
+      <c r="AI14" s="48" t="s">
+        <v>55</v>
       </c>
-      <c r="AJ14" s="28"/>
-      <c r="AK14" s="26" t="s">
-        <v>49</v>
+      <c r="AJ14" s="50"/>
+      <c r="AK14" s="48" t="s">
+        <v>54</v>
       </c>
-      <c r="AL14" s="28"/>
-      <c r="AM14" s="26" t="s">
-        <v>50</v>
+      <c r="AL14" s="50"/>
+      <c r="AM14" s="48" t="s">
+        <v>55</v>
       </c>
-      <c r="AN14" s="28"/>
-      <c r="AO14" s="44"/>
-      <c r="AP14" s="45"/>
-      <c r="AQ14" s="31"/>
-      <c r="AR14" s="31"/>
-      <c r="AS14" s="31"/>
-      <c r="AT14" s="43"/>
-      <c r="AU14" s="31"/>
+      <c r="AN14" s="50"/>
+      <c r="AO14" s="63"/>
+      <c r="AP14" s="62"/>
+      <c r="AQ14" s="54"/>
+      <c r="AR14" s="54"/>
+      <c r="AS14" s="54"/>
+      <c r="AT14" s="56"/>
+      <c r="AU14" s="34"/>
       <c r="AV14" s="1"/>
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
       <c r="AY14" s="1"/>
-      <c r="AZ14" s="50"/>
+      <c r="AZ14" s="68"/>
       <c r="BA14" s="1"/>
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
@@ -1780,81 +2275,81 @@
       <c r="BF14" s="1"/>
     </row>
     <row r="15" ht="40.5" customHeight="1">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="51"/>
-      <c r="Z15" s="51"/>
-      <c r="AA15" s="51"/>
-      <c r="AB15" s="51"/>
-      <c r="AC15" s="53" t="s">
-        <v>51</v>
+      <c r="A15" s="69"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="74" t="s">
+        <v>56</v>
       </c>
-      <c r="AD15" s="54" t="s">
-        <v>52</v>
+      <c r="AD15" s="75" t="s">
+        <v>57</v>
       </c>
-      <c r="AE15" s="54" t="s">
-        <v>51</v>
+      <c r="AE15" s="75" t="s">
+        <v>56</v>
       </c>
-      <c r="AF15" s="54" t="s">
-        <v>52</v>
+      <c r="AF15" s="75" t="s">
+        <v>57</v>
       </c>
-      <c r="AG15" s="54" t="s">
-        <v>51</v>
+      <c r="AG15" s="75" t="s">
+        <v>56</v>
       </c>
-      <c r="AH15" s="54" t="s">
-        <v>52</v>
+      <c r="AH15" s="75" t="s">
+        <v>57</v>
       </c>
-      <c r="AI15" s="54" t="s">
-        <v>51</v>
+      <c r="AI15" s="75" t="s">
+        <v>56</v>
       </c>
-      <c r="AJ15" s="54" t="s">
-        <v>52</v>
+      <c r="AJ15" s="75" t="s">
+        <v>57</v>
       </c>
-      <c r="AK15" s="54" t="s">
-        <v>51</v>
+      <c r="AK15" s="75" t="s">
+        <v>56</v>
       </c>
-      <c r="AL15" s="54" t="s">
-        <v>52</v>
+      <c r="AL15" s="75" t="s">
+        <v>57</v>
       </c>
-      <c r="AM15" s="54" t="s">
-        <v>51</v>
+      <c r="AM15" s="75" t="s">
+        <v>56</v>
       </c>
-      <c r="AN15" s="54" t="s">
-        <v>52</v>
+      <c r="AN15" s="75" t="s">
+        <v>57</v>
       </c>
-      <c r="AO15" s="54" t="s">
-        <v>51</v>
+      <c r="AO15" s="75" t="s">
+        <v>56</v>
       </c>
-      <c r="AP15" s="54" t="s">
-        <v>52</v>
+      <c r="AP15" s="75" t="s">
+        <v>57</v>
       </c>
-      <c r="AQ15" s="51"/>
-      <c r="AR15" s="51"/>
-      <c r="AS15" s="51"/>
-      <c r="AT15" s="55"/>
-      <c r="AU15" s="51"/>
+      <c r="AQ15" s="72"/>
+      <c r="AR15" s="72"/>
+      <c r="AS15" s="72"/>
+      <c r="AT15" s="71"/>
+      <c r="AU15" s="69"/>
       <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
@@ -1868,215 +2363,215 @@
       <c r="BF15" s="1"/>
     </row>
     <row r="16" ht="18.0" customHeight="1">
-      <c r="A16" s="56">
+      <c r="A16" s="76">
         <v>1.0</v>
       </c>
-      <c r="B16" s="56">
+      <c r="B16" s="77">
         <v>2.0</v>
       </c>
-      <c r="C16" s="56">
+      <c r="C16" s="78">
         <v>3.0</v>
       </c>
-      <c r="D16" s="56">
+      <c r="D16" s="77">
         <v>4.0</v>
       </c>
-      <c r="E16" s="56">
+      <c r="E16" s="79">
         <v>5.0</v>
       </c>
-      <c r="F16" s="56">
+      <c r="F16" s="79">
         <v>6.0</v>
       </c>
-      <c r="G16" s="56">
+      <c r="G16" s="79">
         <v>7.0</v>
       </c>
-      <c r="H16" s="56">
+      <c r="H16" s="79">
         <v>8.0</v>
       </c>
-      <c r="I16" s="56">
+      <c r="I16" s="79">
         <v>9.0</v>
       </c>
-      <c r="J16" s="56">
+      <c r="J16" s="79">
         <v>10.0</v>
       </c>
-      <c r="K16" s="56">
+      <c r="K16" s="79">
         <v>11.0</v>
       </c>
-      <c r="L16" s="56">
+      <c r="L16" s="79">
         <v>12.0</v>
       </c>
-      <c r="M16" s="56">
+      <c r="M16" s="79">
         <v>13.0</v>
       </c>
-      <c r="N16" s="56">
+      <c r="N16" s="79">
         <v>14.0</v>
       </c>
-      <c r="O16" s="56">
+      <c r="O16" s="79">
         <v>15.0</v>
       </c>
-      <c r="P16" s="56">
+      <c r="P16" s="79">
         <v>16.0</v>
       </c>
-      <c r="Q16" s="56">
+      <c r="Q16" s="78">
         <v>17.0</v>
       </c>
-      <c r="R16" s="56">
+      <c r="R16" s="77">
         <v>18.0</v>
       </c>
-      <c r="S16" s="56">
+      <c r="S16" s="79">
         <v>19.0</v>
       </c>
-      <c r="T16" s="56">
+      <c r="T16" s="79">
         <v>20.0</v>
       </c>
-      <c r="U16" s="56">
+      <c r="U16" s="79">
         <v>21.0</v>
       </c>
-      <c r="V16" s="56">
+      <c r="V16" s="79">
         <v>22.0</v>
       </c>
-      <c r="W16" s="56">
+      <c r="W16" s="78">
         <v>23.0</v>
       </c>
-      <c r="X16" s="57">
+      <c r="X16" s="80">
         <v>24.0</v>
       </c>
-      <c r="Y16" s="57">
+      <c r="Y16" s="81">
         <v>25.0</v>
       </c>
-      <c r="Z16" s="57">
+      <c r="Z16" s="81">
         <v>26.0</v>
       </c>
-      <c r="AA16" s="57">
+      <c r="AA16" s="81">
         <v>27.0</v>
       </c>
-      <c r="AB16" s="57">
+      <c r="AB16" s="81">
         <v>28.0</v>
       </c>
-      <c r="AC16" s="56">
+      <c r="AC16" s="79">
         <v>29.0</v>
       </c>
-      <c r="AD16" s="56">
+      <c r="AD16" s="79">
         <v>30.0</v>
       </c>
-      <c r="AE16" s="56">
+      <c r="AE16" s="79">
         <v>31.0</v>
       </c>
-      <c r="AF16" s="56">
+      <c r="AF16" s="79">
         <v>32.0</v>
       </c>
-      <c r="AG16" s="56">
+      <c r="AG16" s="79">
         <v>33.0</v>
       </c>
-      <c r="AH16" s="56">
+      <c r="AH16" s="79">
         <v>34.0</v>
       </c>
-      <c r="AI16" s="56">
+      <c r="AI16" s="79">
         <v>35.0</v>
       </c>
-      <c r="AJ16" s="56">
+      <c r="AJ16" s="79">
         <v>36.0</v>
       </c>
-      <c r="AK16" s="56">
+      <c r="AK16" s="79">
         <v>37.0</v>
       </c>
-      <c r="AL16" s="56">
+      <c r="AL16" s="79">
         <v>38.0</v>
       </c>
-      <c r="AM16" s="56">
+      <c r="AM16" s="79">
         <v>39.0</v>
       </c>
-      <c r="AN16" s="56">
+      <c r="AN16" s="79">
         <v>40.0</v>
       </c>
-      <c r="AO16" s="56">
+      <c r="AO16" s="79">
         <v>41.0</v>
       </c>
-      <c r="AP16" s="56">
+      <c r="AP16" s="79">
         <v>42.0</v>
       </c>
-      <c r="AQ16" s="56">
+      <c r="AQ16" s="79">
         <v>43.0</v>
       </c>
-      <c r="AR16" s="56">
+      <c r="AR16" s="79">
         <v>44.0</v>
       </c>
-      <c r="AS16" s="56">
+      <c r="AS16" s="79">
         <v>45.0</v>
       </c>
-      <c r="AT16" s="56">
+      <c r="AT16" s="78">
         <v>46.0</v>
       </c>
-      <c r="AU16" s="56">
+      <c r="AU16" s="76">
         <v>47.0</v>
       </c>
-      <c r="AV16" s="58"/>
-      <c r="AW16" s="58"/>
-      <c r="AX16" s="58"/>
-      <c r="AY16" s="58"/>
-      <c r="AZ16" s="58"/>
-      <c r="BA16" s="58"/>
-      <c r="BB16" s="58"/>
-      <c r="BC16" s="58"/>
-      <c r="BD16" s="58"/>
-      <c r="BE16" s="58"/>
-      <c r="BF16" s="58"/>
-    </row>
-    <row r="17" ht="24.75" customHeight="1">
-      <c r="A17" s="59" t="s">
-        <v>53</v>
+      <c r="AV16" s="82"/>
+      <c r="AW16" s="82"/>
+      <c r="AX16" s="82"/>
+      <c r="AY16" s="82"/>
+      <c r="AZ16" s="82"/>
+      <c r="BA16" s="82"/>
+      <c r="BB16" s="82"/>
+      <c r="BC16" s="82"/>
+      <c r="BD16" s="82"/>
+      <c r="BE16" s="82"/>
+      <c r="BF16" s="82"/>
+    </row>
+    <row r="17" ht="26.25" customHeight="1">
+      <c r="A17" s="83" t="s">
+        <v>58</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="61"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="61"/>
-      <c r="V17" s="61"/>
-      <c r="W17" s="60"/>
-      <c r="X17" s="60"/>
-      <c r="Y17" s="61"/>
-      <c r="Z17" s="61"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="60"/>
-      <c r="AD17" s="60"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
-      <c r="AG17" s="60"/>
-      <c r="AH17" s="60"/>
-      <c r="AI17" s="61"/>
-      <c r="AJ17" s="61"/>
-      <c r="AK17" s="60"/>
-      <c r="AL17" s="60"/>
-      <c r="AM17" s="61"/>
-      <c r="AN17" s="61"/>
-      <c r="AO17" s="62">
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="88"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="87"/>
+      <c r="T17" s="87"/>
+      <c r="U17" s="87"/>
+      <c r="V17" s="87"/>
+      <c r="W17" s="85"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="87"/>
+      <c r="Z17" s="87"/>
+      <c r="AA17" s="87"/>
+      <c r="AB17" s="87"/>
+      <c r="AC17" s="86"/>
+      <c r="AD17" s="86"/>
+      <c r="AE17" s="87"/>
+      <c r="AF17" s="87"/>
+      <c r="AG17" s="86"/>
+      <c r="AH17" s="86"/>
+      <c r="AI17" s="87"/>
+      <c r="AJ17" s="87"/>
+      <c r="AK17" s="86"/>
+      <c r="AL17" s="86"/>
+      <c r="AM17" s="87"/>
+      <c r="AN17" s="87"/>
+      <c r="AO17" s="90">
         <f t="shared" ref="AO17:AP17" si="1">AC17+AE17+AG17+AI17+AK17+AM17</f>
         <v>0</v>
       </c>
-      <c r="AP17" s="63">
+      <c r="AP17" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AQ17" s="60"/>
-      <c r="AR17" s="60"/>
-      <c r="AS17" s="61"/>
-      <c r="AT17" s="61"/>
-      <c r="AU17" s="60"/>
+      <c r="AQ17" s="86"/>
+      <c r="AR17" s="86"/>
+      <c r="AS17" s="87"/>
+      <c r="AT17" s="88"/>
+      <c r="AU17" s="92"/>
       <c r="AV17" s="1"/>
       <c r="AW17" s="1"/>
       <c r="AX17" s="1"/>
@@ -2089,54 +2584,62 @@
       <c r="BE17" s="1"/>
       <c r="BF17" s="1"/>
     </row>
-    <row r="18" ht="24.75" customHeight="1">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="51"/>
-      <c r="Z18" s="51"/>
-      <c r="AA18" s="51"/>
-      <c r="AB18" s="51"/>
-      <c r="AC18" s="51"/>
-      <c r="AD18" s="51"/>
-      <c r="AE18" s="51"/>
-      <c r="AF18" s="51"/>
-      <c r="AG18" s="51"/>
-      <c r="AH18" s="51"/>
-      <c r="AI18" s="51"/>
-      <c r="AJ18" s="51"/>
-      <c r="AK18" s="51"/>
-      <c r="AL18" s="51"/>
-      <c r="AM18" s="51"/>
-      <c r="AN18" s="51"/>
-      <c r="AO18" s="51"/>
-      <c r="AP18" s="51"/>
-      <c r="AQ18" s="51"/>
-      <c r="AR18" s="51"/>
-      <c r="AS18" s="51"/>
-      <c r="AT18" s="51"/>
-      <c r="AU18" s="51"/>
+    <row r="18" ht="26.25" customHeight="1">
+      <c r="A18" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="84"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="88"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="87"/>
+      <c r="T18" s="87"/>
+      <c r="U18" s="87"/>
+      <c r="V18" s="87"/>
+      <c r="W18" s="85"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="87"/>
+      <c r="Z18" s="87"/>
+      <c r="AA18" s="87"/>
+      <c r="AB18" s="87"/>
+      <c r="AC18" s="86"/>
+      <c r="AD18" s="86"/>
+      <c r="AE18" s="87"/>
+      <c r="AF18" s="87"/>
+      <c r="AG18" s="86"/>
+      <c r="AH18" s="86"/>
+      <c r="AI18" s="87"/>
+      <c r="AJ18" s="87"/>
+      <c r="AK18" s="86"/>
+      <c r="AL18" s="86"/>
+      <c r="AM18" s="87"/>
+      <c r="AN18" s="87"/>
+      <c r="AO18" s="90">
+        <f t="shared" ref="AO18:AP18" si="2">AC18+AE18+AG18+AI18+AK18+AM18</f>
+        <v>0</v>
+      </c>
+      <c r="AP18" s="91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="86"/>
+      <c r="AR18" s="86"/>
+      <c r="AS18" s="87"/>
+      <c r="AT18" s="88"/>
+      <c r="AU18" s="92"/>
       <c r="AV18" s="1"/>
       <c r="AW18" s="1"/>
       <c r="AX18" s="1"/>
@@ -2149,62 +2652,62 @@
       <c r="BE18" s="1"/>
       <c r="BF18" s="1"/>
     </row>
-    <row r="19" ht="24.75" customHeight="1">
-      <c r="A19" s="64" t="s">
-        <v>54</v>
+    <row r="19" ht="26.25" customHeight="1">
+      <c r="A19" s="93" t="s">
+        <v>60</v>
       </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="61"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="61"/>
-      <c r="V19" s="61"/>
-      <c r="W19" s="60"/>
-      <c r="X19" s="60"/>
-      <c r="Y19" s="61"/>
-      <c r="Z19" s="61"/>
-      <c r="AA19" s="61"/>
-      <c r="AB19" s="61"/>
-      <c r="AC19" s="60"/>
-      <c r="AD19" s="60"/>
-      <c r="AE19" s="61"/>
-      <c r="AF19" s="61"/>
-      <c r="AG19" s="60"/>
-      <c r="AH19" s="60"/>
-      <c r="AI19" s="61"/>
-      <c r="AJ19" s="61"/>
-      <c r="AK19" s="60"/>
-      <c r="AL19" s="60"/>
-      <c r="AM19" s="61"/>
-      <c r="AN19" s="61"/>
-      <c r="AO19" s="62">
-        <f t="shared" ref="AO19:AP19" si="2">AC19+AE19+AG19+AI19+AK19+AM19</f>
+      <c r="B19" s="84"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="84"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="86"/>
+      <c r="U19" s="86"/>
+      <c r="V19" s="86"/>
+      <c r="W19" s="85"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="86"/>
+      <c r="Z19" s="86"/>
+      <c r="AA19" s="86"/>
+      <c r="AB19" s="86"/>
+      <c r="AC19" s="86"/>
+      <c r="AD19" s="86"/>
+      <c r="AE19" s="86"/>
+      <c r="AF19" s="86"/>
+      <c r="AG19" s="86"/>
+      <c r="AH19" s="86"/>
+      <c r="AI19" s="86"/>
+      <c r="AJ19" s="86"/>
+      <c r="AK19" s="86"/>
+      <c r="AL19" s="86"/>
+      <c r="AM19" s="86"/>
+      <c r="AN19" s="86"/>
+      <c r="AO19" s="90">
+        <f t="shared" ref="AO19:AP19" si="3">AC19+AE19+AG19+AI19+AK19+AM19</f>
         <v>0</v>
       </c>
-      <c r="AP19" s="63">
-        <f t="shared" si="2"/>
+      <c r="AP19" s="91">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AQ19" s="60"/>
-      <c r="AR19" s="60"/>
-      <c r="AS19" s="61"/>
-      <c r="AT19" s="61"/>
-      <c r="AU19" s="60"/>
+      <c r="AQ19" s="86"/>
+      <c r="AR19" s="86"/>
+      <c r="AS19" s="86"/>
+      <c r="AT19" s="85"/>
+      <c r="AU19" s="92"/>
       <c r="AV19" s="1"/>
       <c r="AW19" s="1"/>
       <c r="AX19" s="1"/>
@@ -2217,54 +2720,62 @@
       <c r="BE19" s="1"/>
       <c r="BF19" s="1"/>
     </row>
-    <row r="20" ht="24.75" customHeight="1">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="51"/>
-      <c r="Z20" s="51"/>
-      <c r="AA20" s="51"/>
-      <c r="AB20" s="51"/>
-      <c r="AC20" s="51"/>
-      <c r="AD20" s="51"/>
-      <c r="AE20" s="51"/>
-      <c r="AF20" s="51"/>
-      <c r="AG20" s="51"/>
-      <c r="AH20" s="51"/>
-      <c r="AI20" s="51"/>
-      <c r="AJ20" s="51"/>
-      <c r="AK20" s="51"/>
-      <c r="AL20" s="51"/>
-      <c r="AM20" s="51"/>
-      <c r="AN20" s="51"/>
-      <c r="AO20" s="51"/>
-      <c r="AP20" s="51"/>
-      <c r="AQ20" s="51"/>
-      <c r="AR20" s="51"/>
-      <c r="AS20" s="51"/>
-      <c r="AT20" s="51"/>
-      <c r="AU20" s="51"/>
+    <row r="20" ht="26.25" customHeight="1">
+      <c r="A20" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="84"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="84"/>
+      <c r="S20" s="86"/>
+      <c r="T20" s="86"/>
+      <c r="U20" s="86"/>
+      <c r="V20" s="86"/>
+      <c r="W20" s="85"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="86"/>
+      <c r="Z20" s="86"/>
+      <c r="AA20" s="86"/>
+      <c r="AB20" s="86"/>
+      <c r="AC20" s="86"/>
+      <c r="AD20" s="86"/>
+      <c r="AE20" s="86"/>
+      <c r="AF20" s="86"/>
+      <c r="AG20" s="86"/>
+      <c r="AH20" s="86"/>
+      <c r="AI20" s="86"/>
+      <c r="AJ20" s="86"/>
+      <c r="AK20" s="86"/>
+      <c r="AL20" s="86"/>
+      <c r="AM20" s="86"/>
+      <c r="AN20" s="86"/>
+      <c r="AO20" s="90">
+        <f t="shared" ref="AO20:AP20" si="4">AC20+AE20+AG20+AI20+AK20+AM20</f>
+        <v>0</v>
+      </c>
+      <c r="AP20" s="91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="86"/>
+      <c r="AR20" s="86"/>
+      <c r="AS20" s="86"/>
+      <c r="AT20" s="85"/>
+      <c r="AU20" s="92"/>
       <c r="AV20" s="1"/>
       <c r="AW20" s="1"/>
       <c r="AX20" s="1"/>
@@ -2277,62 +2788,62 @@
       <c r="BE20" s="1"/>
       <c r="BF20" s="1"/>
     </row>
-    <row r="21" ht="24.75" customHeight="1">
-      <c r="A21" s="64" t="s">
-        <v>55</v>
+    <row r="21" ht="26.25" customHeight="1">
+      <c r="A21" s="93" t="s">
+        <v>62</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="60"/>
-      <c r="U21" s="60"/>
-      <c r="V21" s="60"/>
-      <c r="W21" s="60"/>
-      <c r="X21" s="60"/>
-      <c r="Y21" s="60"/>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="60"/>
-      <c r="AB21" s="60"/>
-      <c r="AC21" s="60"/>
-      <c r="AD21" s="60"/>
-      <c r="AE21" s="60"/>
-      <c r="AF21" s="60"/>
-      <c r="AG21" s="60"/>
-      <c r="AH21" s="60"/>
-      <c r="AI21" s="60"/>
-      <c r="AJ21" s="60"/>
-      <c r="AK21" s="60"/>
-      <c r="AL21" s="60"/>
-      <c r="AM21" s="60"/>
-      <c r="AN21" s="60"/>
-      <c r="AO21" s="62">
-        <f t="shared" ref="AO21:AP21" si="3">AC21+AE21+AG21+AI21+AK21+AM21</f>
+      <c r="B21" s="84"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="84"/>
+      <c r="S21" s="86"/>
+      <c r="T21" s="86"/>
+      <c r="U21" s="86"/>
+      <c r="V21" s="86"/>
+      <c r="W21" s="85"/>
+      <c r="X21" s="89"/>
+      <c r="Y21" s="86"/>
+      <c r="Z21" s="86"/>
+      <c r="AA21" s="86"/>
+      <c r="AB21" s="86"/>
+      <c r="AC21" s="86"/>
+      <c r="AD21" s="86"/>
+      <c r="AE21" s="86"/>
+      <c r="AF21" s="86"/>
+      <c r="AG21" s="86"/>
+      <c r="AH21" s="86"/>
+      <c r="AI21" s="86"/>
+      <c r="AJ21" s="86"/>
+      <c r="AK21" s="86"/>
+      <c r="AL21" s="86"/>
+      <c r="AM21" s="86"/>
+      <c r="AN21" s="86"/>
+      <c r="AO21" s="90">
+        <f t="shared" ref="AO21:AP21" si="5">AC21+AE21+AG21+AI21+AK21+AM21</f>
         <v>0</v>
       </c>
-      <c r="AP21" s="63">
-        <f t="shared" si="3"/>
+      <c r="AP21" s="91">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AQ21" s="60"/>
-      <c r="AR21" s="60"/>
-      <c r="AS21" s="60"/>
-      <c r="AT21" s="60"/>
-      <c r="AU21" s="60"/>
+      <c r="AQ21" s="86"/>
+      <c r="AR21" s="86"/>
+      <c r="AS21" s="86"/>
+      <c r="AT21" s="85"/>
+      <c r="AU21" s="92"/>
       <c r="AV21" s="1"/>
       <c r="AW21" s="1"/>
       <c r="AX21" s="1"/>
@@ -2345,54 +2856,62 @@
       <c r="BE21" s="1"/>
       <c r="BF21" s="1"/>
     </row>
-    <row r="22" ht="24.75" customHeight="1">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="51"/>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="51"/>
-      <c r="AB22" s="51"/>
-      <c r="AC22" s="51"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="51"/>
-      <c r="AF22" s="51"/>
-      <c r="AG22" s="51"/>
-      <c r="AH22" s="51"/>
-      <c r="AI22" s="51"/>
-      <c r="AJ22" s="51"/>
-      <c r="AK22" s="51"/>
-      <c r="AL22" s="51"/>
-      <c r="AM22" s="51"/>
-      <c r="AN22" s="51"/>
-      <c r="AO22" s="51"/>
-      <c r="AP22" s="51"/>
-      <c r="AQ22" s="51"/>
-      <c r="AR22" s="51"/>
-      <c r="AS22" s="51"/>
-      <c r="AT22" s="51"/>
-      <c r="AU22" s="51"/>
+    <row r="22" ht="26.25" customHeight="1">
+      <c r="A22" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="86"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="84"/>
+      <c r="S22" s="86"/>
+      <c r="T22" s="86"/>
+      <c r="U22" s="86"/>
+      <c r="V22" s="86"/>
+      <c r="W22" s="85"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="86"/>
+      <c r="Z22" s="86"/>
+      <c r="AA22" s="86"/>
+      <c r="AB22" s="86"/>
+      <c r="AC22" s="86"/>
+      <c r="AD22" s="86"/>
+      <c r="AE22" s="86"/>
+      <c r="AF22" s="86"/>
+      <c r="AG22" s="86"/>
+      <c r="AH22" s="86"/>
+      <c r="AI22" s="86"/>
+      <c r="AJ22" s="86"/>
+      <c r="AK22" s="86"/>
+      <c r="AL22" s="86"/>
+      <c r="AM22" s="86"/>
+      <c r="AN22" s="86"/>
+      <c r="AO22" s="90">
+        <f t="shared" ref="AO22:AP22" si="6">AC22+AE22+AG22+AI22+AK22+AM22</f>
+        <v>0</v>
+      </c>
+      <c r="AP22" s="91">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="86"/>
+      <c r="AR22" s="86"/>
+      <c r="AS22" s="86"/>
+      <c r="AT22" s="85"/>
+      <c r="AU22" s="92"/>
       <c r="AV22" s="1"/>
       <c r="AW22" s="1"/>
       <c r="AX22" s="1"/>
@@ -2405,62 +2924,62 @@
       <c r="BE22" s="1"/>
       <c r="BF22" s="1"/>
     </row>
-    <row r="23" ht="24.75" customHeight="1">
-      <c r="A23" s="64" t="s">
-        <v>56</v>
+    <row r="23" ht="26.25" customHeight="1">
+      <c r="A23" s="93" t="s">
+        <v>64</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="60"/>
-      <c r="V23" s="60"/>
-      <c r="W23" s="60"/>
-      <c r="X23" s="60"/>
-      <c r="Y23" s="60"/>
-      <c r="Z23" s="60"/>
-      <c r="AA23" s="60"/>
-      <c r="AB23" s="60"/>
-      <c r="AC23" s="60"/>
-      <c r="AD23" s="60"/>
-      <c r="AE23" s="60"/>
-      <c r="AF23" s="60"/>
-      <c r="AG23" s="60"/>
-      <c r="AH23" s="60"/>
-      <c r="AI23" s="60"/>
-      <c r="AJ23" s="60"/>
-      <c r="AK23" s="60"/>
-      <c r="AL23" s="60"/>
-      <c r="AM23" s="60"/>
-      <c r="AN23" s="60"/>
-      <c r="AO23" s="62">
-        <f t="shared" ref="AO23:AP23" si="4">AC23+AE23+AG23+AI23+AK23+AM23</f>
+      <c r="B23" s="84"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="84"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="86"/>
+      <c r="W23" s="85"/>
+      <c r="X23" s="89"/>
+      <c r="Y23" s="86"/>
+      <c r="Z23" s="86"/>
+      <c r="AA23" s="86"/>
+      <c r="AB23" s="86"/>
+      <c r="AC23" s="86"/>
+      <c r="AD23" s="86"/>
+      <c r="AE23" s="86"/>
+      <c r="AF23" s="86"/>
+      <c r="AG23" s="86"/>
+      <c r="AH23" s="86"/>
+      <c r="AI23" s="86"/>
+      <c r="AJ23" s="86"/>
+      <c r="AK23" s="86"/>
+      <c r="AL23" s="86"/>
+      <c r="AM23" s="86"/>
+      <c r="AN23" s="86"/>
+      <c r="AO23" s="90">
+        <f t="shared" ref="AO23:AP23" si="7">AC23+AE23+AG23+AI23+AK23+AM23</f>
         <v>0</v>
       </c>
-      <c r="AP23" s="63">
-        <f t="shared" si="4"/>
+      <c r="AP23" s="91">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AQ23" s="60"/>
-      <c r="AR23" s="60"/>
-      <c r="AS23" s="60"/>
-      <c r="AT23" s="60"/>
-      <c r="AU23" s="60"/>
+      <c r="AQ23" s="86"/>
+      <c r="AR23" s="86"/>
+      <c r="AS23" s="86"/>
+      <c r="AT23" s="85"/>
+      <c r="AU23" s="92"/>
       <c r="AV23" s="1"/>
       <c r="AW23" s="1"/>
       <c r="AX23" s="1"/>
@@ -2473,54 +2992,194 @@
       <c r="BE23" s="1"/>
       <c r="BF23" s="1"/>
     </row>
-    <row r="24" ht="24.75" customHeight="1">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="51"/>
-      <c r="Z24" s="51"/>
-      <c r="AA24" s="51"/>
-      <c r="AB24" s="51"/>
-      <c r="AC24" s="51"/>
-      <c r="AD24" s="51"/>
-      <c r="AE24" s="51"/>
-      <c r="AF24" s="51"/>
-      <c r="AG24" s="51"/>
-      <c r="AH24" s="51"/>
-      <c r="AI24" s="51"/>
-      <c r="AJ24" s="51"/>
-      <c r="AK24" s="51"/>
-      <c r="AL24" s="51"/>
-      <c r="AM24" s="51"/>
-      <c r="AN24" s="51"/>
-      <c r="AO24" s="51"/>
-      <c r="AP24" s="51"/>
-      <c r="AQ24" s="51"/>
-      <c r="AR24" s="51"/>
-      <c r="AS24" s="51"/>
-      <c r="AT24" s="51"/>
-      <c r="AU24" s="51"/>
+    <row r="24" ht="26.25" customHeight="1">
+      <c r="A24" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="95">
+        <f t="shared" ref="B24:AN24" si="8">SUM(B17:B23)</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="96">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="95">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="96">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="95">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="96">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X24" s="98">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AH24" s="97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI24" s="97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK24" s="97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL24" s="97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM24" s="97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AN24" s="97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AO24" s="97">
+        <f t="shared" ref="AO24:AP24" si="9">AC24+AE24+AG24+AI24+AK24+AM24</f>
+        <v>0</v>
+      </c>
+      <c r="AP24" s="99">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="97">
+        <f t="shared" ref="AQ24:AU24" si="10">SUM(AQ17:AQ23)</f>
+        <v>0</v>
+      </c>
+      <c r="AR24" s="97">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AS24" s="97">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AT24" s="96">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AU24" s="100">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AV24" s="1"/>
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
@@ -2533,62 +3192,62 @@
       <c r="BE24" s="1"/>
       <c r="BF24" s="1"/>
     </row>
-    <row r="25" ht="24.75" customHeight="1">
-      <c r="A25" s="64" t="s">
-        <v>57</v>
+    <row r="25" ht="26.25" customHeight="1">
+      <c r="A25" s="101" t="s">
+        <v>66</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="60"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="60"/>
-      <c r="U25" s="60"/>
-      <c r="V25" s="60"/>
-      <c r="W25" s="60"/>
-      <c r="X25" s="60"/>
-      <c r="Y25" s="60"/>
-      <c r="Z25" s="60"/>
-      <c r="AA25" s="60"/>
-      <c r="AB25" s="60"/>
-      <c r="AC25" s="60"/>
-      <c r="AD25" s="60"/>
-      <c r="AE25" s="60"/>
-      <c r="AF25" s="60"/>
-      <c r="AG25" s="60"/>
-      <c r="AH25" s="60"/>
-      <c r="AI25" s="60"/>
-      <c r="AJ25" s="60"/>
-      <c r="AK25" s="60"/>
-      <c r="AL25" s="60"/>
-      <c r="AM25" s="60"/>
-      <c r="AN25" s="60"/>
-      <c r="AO25" s="62">
-        <f t="shared" ref="AO25:AP25" si="5">AC25+AE25+AG25+AI25+AK25+AM25</f>
+      <c r="B25" s="84"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="86"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="84"/>
+      <c r="S25" s="102"/>
+      <c r="T25" s="102"/>
+      <c r="U25" s="102"/>
+      <c r="V25" s="102"/>
+      <c r="W25" s="103"/>
+      <c r="X25" s="104"/>
+      <c r="Y25" s="105"/>
+      <c r="Z25" s="105"/>
+      <c r="AA25" s="105"/>
+      <c r="AB25" s="105"/>
+      <c r="AC25" s="105"/>
+      <c r="AD25" s="105"/>
+      <c r="AE25" s="105"/>
+      <c r="AF25" s="105"/>
+      <c r="AG25" s="105"/>
+      <c r="AH25" s="105"/>
+      <c r="AI25" s="105"/>
+      <c r="AJ25" s="105"/>
+      <c r="AK25" s="105"/>
+      <c r="AL25" s="105"/>
+      <c r="AM25" s="105"/>
+      <c r="AN25" s="105"/>
+      <c r="AO25" s="97">
+        <f t="shared" ref="AO25:AP25" si="11">AC25+AE25+AG25+AI25+AK25+AM25</f>
         <v>0</v>
       </c>
-      <c r="AP25" s="63">
-        <f t="shared" si="5"/>
+      <c r="AP25" s="99">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AQ25" s="60"/>
-      <c r="AR25" s="60"/>
-      <c r="AS25" s="60"/>
-      <c r="AT25" s="60"/>
-      <c r="AU25" s="60"/>
+      <c r="AQ25" s="105"/>
+      <c r="AR25" s="105"/>
+      <c r="AS25" s="105"/>
+      <c r="AT25" s="106"/>
+      <c r="AU25" s="107"/>
       <c r="AV25" s="1"/>
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
@@ -2601,54 +3260,62 @@
       <c r="BE25" s="1"/>
       <c r="BF25" s="1"/>
     </row>
-    <row r="26" ht="24.75" customHeight="1">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="51"/>
-      <c r="Z26" s="51"/>
-      <c r="AA26" s="51"/>
-      <c r="AB26" s="51"/>
-      <c r="AC26" s="51"/>
-      <c r="AD26" s="51"/>
-      <c r="AE26" s="51"/>
-      <c r="AF26" s="51"/>
-      <c r="AG26" s="51"/>
-      <c r="AH26" s="51"/>
-      <c r="AI26" s="51"/>
-      <c r="AJ26" s="51"/>
-      <c r="AK26" s="51"/>
-      <c r="AL26" s="51"/>
-      <c r="AM26" s="51"/>
-      <c r="AN26" s="51"/>
-      <c r="AO26" s="51"/>
-      <c r="AP26" s="51"/>
-      <c r="AQ26" s="51"/>
-      <c r="AR26" s="51"/>
-      <c r="AS26" s="51"/>
-      <c r="AT26" s="51"/>
-      <c r="AU26" s="51"/>
+    <row r="26" ht="26.25" customHeight="1">
+      <c r="A26" s="108" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="109"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="111"/>
+      <c r="O26" s="111"/>
+      <c r="P26" s="111"/>
+      <c r="Q26" s="110"/>
+      <c r="R26" s="109"/>
+      <c r="S26" s="112"/>
+      <c r="T26" s="112"/>
+      <c r="U26" s="112"/>
+      <c r="V26" s="112"/>
+      <c r="W26" s="113"/>
+      <c r="X26" s="114"/>
+      <c r="Y26" s="115"/>
+      <c r="Z26" s="115"/>
+      <c r="AA26" s="115"/>
+      <c r="AB26" s="115"/>
+      <c r="AC26" s="115"/>
+      <c r="AD26" s="115"/>
+      <c r="AE26" s="115"/>
+      <c r="AF26" s="115"/>
+      <c r="AG26" s="115"/>
+      <c r="AH26" s="115"/>
+      <c r="AI26" s="115"/>
+      <c r="AJ26" s="115"/>
+      <c r="AK26" s="115"/>
+      <c r="AL26" s="115"/>
+      <c r="AM26" s="115"/>
+      <c r="AN26" s="115"/>
+      <c r="AO26" s="116">
+        <f t="shared" ref="AO26:AP26" si="12">AC26+AE26+AG26+AI26+AK26+AM26</f>
+        <v>0</v>
+      </c>
+      <c r="AP26" s="117">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="115"/>
+      <c r="AR26" s="115"/>
+      <c r="AS26" s="115"/>
+      <c r="AT26" s="118"/>
+      <c r="AU26" s="119"/>
       <c r="AV26" s="1"/>
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
@@ -2661,62 +3328,54 @@
       <c r="BE26" s="1"/>
       <c r="BF26" s="1"/>
     </row>
-    <row r="27" ht="24.75" customHeight="1">
-      <c r="A27" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="60"/>
-      <c r="R27" s="60"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="60"/>
-      <c r="U27" s="60"/>
-      <c r="V27" s="60"/>
-      <c r="W27" s="60"/>
-      <c r="X27" s="60"/>
-      <c r="Y27" s="60"/>
-      <c r="Z27" s="60"/>
-      <c r="AA27" s="60"/>
-      <c r="AB27" s="60"/>
-      <c r="AC27" s="60"/>
-      <c r="AD27" s="60"/>
-      <c r="AE27" s="60"/>
-      <c r="AF27" s="60"/>
-      <c r="AG27" s="60"/>
-      <c r="AH27" s="60"/>
-      <c r="AI27" s="60"/>
-      <c r="AJ27" s="60"/>
-      <c r="AK27" s="60"/>
-      <c r="AL27" s="60"/>
-      <c r="AM27" s="60"/>
-      <c r="AN27" s="60"/>
-      <c r="AO27" s="62">
-        <f t="shared" ref="AO27:AP27" si="6">AC27+AE27+AG27+AI27+AK27+AM27</f>
-        <v>0</v>
-      </c>
-      <c r="AP27" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AQ27" s="60"/>
-      <c r="AR27" s="60"/>
-      <c r="AS27" s="60"/>
-      <c r="AT27" s="60"/>
-      <c r="AU27" s="60"/>
+    <row r="27" ht="14.25" customHeight="1">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="1"/>
       <c r="AV27" s="1"/>
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
@@ -2729,54 +3388,55 @@
       <c r="BE27" s="1"/>
       <c r="BF27" s="1"/>
     </row>
-    <row r="28" ht="24.75" customHeight="1">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="51"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="51"/>
-      <c r="Z28" s="51"/>
-      <c r="AA28" s="51"/>
-      <c r="AB28" s="51"/>
-      <c r="AC28" s="51"/>
-      <c r="AD28" s="51"/>
-      <c r="AE28" s="51"/>
-      <c r="AF28" s="51"/>
-      <c r="AG28" s="51"/>
-      <c r="AH28" s="51"/>
-      <c r="AI28" s="51"/>
-      <c r="AJ28" s="51"/>
-      <c r="AK28" s="51"/>
-      <c r="AL28" s="51"/>
-      <c r="AM28" s="51"/>
-      <c r="AN28" s="51"/>
-      <c r="AO28" s="51"/>
-      <c r="AP28" s="51"/>
-      <c r="AQ28" s="51"/>
-      <c r="AR28" s="51"/>
-      <c r="AS28" s="51"/>
-      <c r="AT28" s="51"/>
-      <c r="AU28" s="51"/>
+    <row r="28" ht="14.25" customHeight="1">
+      <c r="A28" s="120" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="121"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="1"/>
+      <c r="AU28" s="1"/>
       <c r="AV28" s="1"/>
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
@@ -2789,62 +3449,55 @@
       <c r="BE28" s="1"/>
       <c r="BF28" s="1"/>
     </row>
-    <row r="29" ht="24.75" customHeight="1">
-      <c r="A29" s="64" t="s">
-        <v>59</v>
+    <row r="29" ht="14.25" customHeight="1">
+      <c r="A29" s="122" t="s">
+        <v>69</v>
       </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="60"/>
-      <c r="V29" s="60"/>
-      <c r="W29" s="60"/>
-      <c r="X29" s="60"/>
-      <c r="Y29" s="60"/>
-      <c r="Z29" s="60"/>
-      <c r="AA29" s="60"/>
-      <c r="AB29" s="60"/>
-      <c r="AC29" s="60"/>
-      <c r="AD29" s="60"/>
-      <c r="AE29" s="60"/>
-      <c r="AF29" s="60"/>
-      <c r="AG29" s="60"/>
-      <c r="AH29" s="60"/>
-      <c r="AI29" s="60"/>
-      <c r="AJ29" s="60"/>
-      <c r="AK29" s="60"/>
-      <c r="AL29" s="60"/>
-      <c r="AM29" s="60"/>
-      <c r="AN29" s="60"/>
-      <c r="AO29" s="62">
-        <f t="shared" ref="AO29:AP29" si="7">AC29+AE29+AG29+AI29+AK29+AM29</f>
-        <v>0</v>
-      </c>
-      <c r="AP29" s="63">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ29" s="60"/>
-      <c r="AR29" s="60"/>
-      <c r="AS29" s="60"/>
-      <c r="AT29" s="60"/>
-      <c r="AU29" s="60"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="1"/>
       <c r="AV29" s="1"/>
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
@@ -2857,54 +3510,55 @@
       <c r="BE29" s="1"/>
       <c r="BF29" s="1"/>
     </row>
-    <row r="30" ht="24.75" customHeight="1">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="51"/>
-      <c r="U30" s="51"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="51"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="51"/>
-      <c r="AB30" s="51"/>
-      <c r="AC30" s="51"/>
-      <c r="AD30" s="51"/>
-      <c r="AE30" s="51"/>
-      <c r="AF30" s="51"/>
-      <c r="AG30" s="51"/>
-      <c r="AH30" s="51"/>
-      <c r="AI30" s="51"/>
-      <c r="AJ30" s="51"/>
-      <c r="AK30" s="51"/>
-      <c r="AL30" s="51"/>
-      <c r="AM30" s="51"/>
-      <c r="AN30" s="51"/>
-      <c r="AO30" s="51"/>
-      <c r="AP30" s="51"/>
-      <c r="AQ30" s="51"/>
-      <c r="AR30" s="51"/>
-      <c r="AS30" s="51"/>
-      <c r="AT30" s="51"/>
-      <c r="AU30" s="51"/>
+    <row r="30" ht="14.25" customHeight="1">
+      <c r="A30" s="123" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="121"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1"/>
       <c r="AV30" s="1"/>
       <c r="AW30" s="1"/>
       <c r="AX30" s="1"/>
@@ -2917,194 +3571,55 @@
       <c r="BE30" s="1"/>
       <c r="BF30" s="1"/>
     </row>
-    <row r="31" ht="24.75" customHeight="1">
-      <c r="A31" s="65" t="s">
-        <v>60</v>
+    <row r="31" ht="14.25" customHeight="1">
+      <c r="A31" s="122" t="s">
+        <v>71</v>
       </c>
-      <c r="B31" s="66">
-        <f t="shared" ref="B31:AN31" si="8">SUM(B17:B30)</f>
-        <v>0</v>
-      </c>
-      <c r="C31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AC31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AD31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AG31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AH31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AL31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AN31" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO31" s="66">
-        <f t="shared" ref="AO31:AP31" si="9">AC31+AE31+AG31+AI31+AK31+AM31</f>
-        <v>0</v>
-      </c>
-      <c r="AP31" s="67">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AQ31" s="66">
-        <f t="shared" ref="AQ31:AU31" si="10">SUM(AQ17:AQ30)</f>
-        <v>0</v>
-      </c>
-      <c r="AR31" s="66">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AS31" s="66">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AT31" s="66">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AU31" s="66">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="C31" s="121"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1"/>
       <c r="AV31" s="1"/>
       <c r="AW31" s="1"/>
       <c r="AX31" s="1"/>
@@ -3117,54 +3632,55 @@
       <c r="BE31" s="1"/>
       <c r="BF31" s="1"/>
     </row>
-    <row r="32" ht="24.75" customHeight="1">
-      <c r="A32" s="51"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="51"/>
-      <c r="V32" s="51"/>
-      <c r="W32" s="51"/>
-      <c r="X32" s="51"/>
-      <c r="Y32" s="51"/>
-      <c r="Z32" s="51"/>
-      <c r="AA32" s="51"/>
-      <c r="AB32" s="51"/>
-      <c r="AC32" s="51"/>
-      <c r="AD32" s="51"/>
-      <c r="AE32" s="51"/>
-      <c r="AF32" s="51"/>
-      <c r="AG32" s="51"/>
-      <c r="AH32" s="51"/>
-      <c r="AI32" s="51"/>
-      <c r="AJ32" s="51"/>
-      <c r="AK32" s="51"/>
-      <c r="AL32" s="51"/>
-      <c r="AM32" s="51"/>
-      <c r="AN32" s="51"/>
-      <c r="AO32" s="51"/>
-      <c r="AP32" s="51"/>
-      <c r="AQ32" s="51"/>
-      <c r="AR32" s="51"/>
-      <c r="AS32" s="51"/>
-      <c r="AT32" s="51"/>
-      <c r="AU32" s="51"/>
+    <row r="32" ht="14.25" customHeight="1">
+      <c r="A32" s="123" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="121"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1"/>
+      <c r="AU32" s="1"/>
       <c r="AV32" s="1"/>
       <c r="AW32" s="1"/>
       <c r="AX32" s="1"/>
@@ -3177,62 +3693,56 @@
       <c r="BE32" s="1"/>
       <c r="BF32" s="1"/>
     </row>
-    <row r="33" ht="24.75" customHeight="1">
-      <c r="A33" s="64" t="s">
-        <v>61</v>
+    <row r="33" ht="14.25" customHeight="1">
+      <c r="A33" s="122" t="s">
+        <v>73</v>
       </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="60"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="60"/>
-      <c r="P33" s="60"/>
-      <c r="Q33" s="60"/>
-      <c r="R33" s="60"/>
-      <c r="S33" s="68"/>
-      <c r="T33" s="68"/>
-      <c r="U33" s="68"/>
-      <c r="V33" s="68"/>
-      <c r="W33" s="68"/>
-      <c r="X33" s="69"/>
-      <c r="Y33" s="69"/>
-      <c r="Z33" s="69"/>
-      <c r="AA33" s="69"/>
-      <c r="AB33" s="69"/>
-      <c r="AC33" s="69"/>
-      <c r="AD33" s="69"/>
-      <c r="AE33" s="69"/>
-      <c r="AF33" s="69"/>
-      <c r="AG33" s="69"/>
-      <c r="AH33" s="69"/>
-      <c r="AI33" s="69"/>
-      <c r="AJ33" s="69"/>
-      <c r="AK33" s="69"/>
-      <c r="AL33" s="69"/>
-      <c r="AM33" s="69"/>
-      <c r="AN33" s="69"/>
-      <c r="AO33" s="66">
-        <f t="shared" ref="AO33:AP33" si="11">AC33+AE33+AG33+AI33+AK33+AM33</f>
-        <v>0</v>
-      </c>
-      <c r="AP33" s="67">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AQ33" s="69"/>
-      <c r="AR33" s="69"/>
-      <c r="AS33" s="69"/>
-      <c r="AT33" s="69"/>
-      <c r="AU33" s="69"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="1"/>
       <c r="AV33" s="1"/>
       <c r="AW33" s="1"/>
       <c r="AX33" s="1"/>
@@ -3245,54 +3755,56 @@
       <c r="BE33" s="1"/>
       <c r="BF33" s="1"/>
     </row>
-    <row r="34" ht="24.75" customHeight="1">
-      <c r="A34" s="31"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="51"/>
-      <c r="U34" s="51"/>
-      <c r="V34" s="51"/>
-      <c r="W34" s="51"/>
-      <c r="X34" s="51"/>
-      <c r="Y34" s="51"/>
-      <c r="Z34" s="51"/>
-      <c r="AA34" s="51"/>
-      <c r="AB34" s="51"/>
-      <c r="AC34" s="51"/>
-      <c r="AD34" s="51"/>
-      <c r="AE34" s="51"/>
-      <c r="AF34" s="51"/>
-      <c r="AG34" s="51"/>
-      <c r="AH34" s="51"/>
-      <c r="AI34" s="51"/>
-      <c r="AJ34" s="51"/>
-      <c r="AK34" s="51"/>
-      <c r="AL34" s="51"/>
-      <c r="AM34" s="51"/>
-      <c r="AN34" s="51"/>
-      <c r="AO34" s="51"/>
-      <c r="AP34" s="51"/>
-      <c r="AQ34" s="51"/>
-      <c r="AR34" s="51"/>
-      <c r="AS34" s="51"/>
-      <c r="AT34" s="51"/>
-      <c r="AU34" s="51"/>
+    <row r="34" ht="14.25" customHeight="1">
+      <c r="A34" s="123" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
       <c r="AV34" s="1"/>
       <c r="AW34" s="1"/>
       <c r="AX34" s="1"/>
@@ -3305,62 +3817,56 @@
       <c r="BE34" s="1"/>
       <c r="BF34" s="1"/>
     </row>
-    <row r="35" ht="24.75" customHeight="1">
-      <c r="A35" s="64" t="s">
-        <v>62</v>
+    <row r="35" ht="14.25" customHeight="1">
+      <c r="A35" s="122" t="s">
+        <v>75</v>
       </c>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="60"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="60"/>
-      <c r="R35" s="60"/>
-      <c r="S35" s="68"/>
-      <c r="T35" s="68"/>
-      <c r="U35" s="68"/>
-      <c r="V35" s="68"/>
-      <c r="W35" s="68"/>
-      <c r="X35" s="69"/>
-      <c r="Y35" s="69"/>
-      <c r="Z35" s="69"/>
-      <c r="AA35" s="69"/>
-      <c r="AB35" s="69"/>
-      <c r="AC35" s="69"/>
-      <c r="AD35" s="69"/>
-      <c r="AE35" s="69"/>
-      <c r="AF35" s="69"/>
-      <c r="AG35" s="69"/>
-      <c r="AH35" s="69"/>
-      <c r="AI35" s="69"/>
-      <c r="AJ35" s="69"/>
-      <c r="AK35" s="69"/>
-      <c r="AL35" s="69"/>
-      <c r="AM35" s="69"/>
-      <c r="AN35" s="69"/>
-      <c r="AO35" s="66">
-        <f t="shared" ref="AO35:AP35" si="12">AC35+AE35+AG35+AI35+AK35+AM35</f>
-        <v>0</v>
-      </c>
-      <c r="AP35" s="67">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AQ35" s="69"/>
-      <c r="AR35" s="69"/>
-      <c r="AS35" s="69"/>
-      <c r="AT35" s="69"/>
-      <c r="AU35" s="69"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="1"/>
       <c r="AV35" s="1"/>
       <c r="AW35" s="1"/>
       <c r="AX35" s="1"/>
@@ -3373,54 +3879,56 @@
       <c r="BE35" s="1"/>
       <c r="BF35" s="1"/>
     </row>
-    <row r="36" ht="24.75" customHeight="1">
-      <c r="A36" s="51"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="51"/>
-      <c r="R36" s="51"/>
-      <c r="S36" s="51"/>
-      <c r="T36" s="51"/>
-      <c r="U36" s="51"/>
-      <c r="V36" s="51"/>
-      <c r="W36" s="51"/>
-      <c r="X36" s="51"/>
-      <c r="Y36" s="51"/>
-      <c r="Z36" s="51"/>
-      <c r="AA36" s="51"/>
-      <c r="AB36" s="51"/>
-      <c r="AC36" s="51"/>
-      <c r="AD36" s="51"/>
-      <c r="AE36" s="51"/>
-      <c r="AF36" s="51"/>
-      <c r="AG36" s="51"/>
-      <c r="AH36" s="51"/>
-      <c r="AI36" s="51"/>
-      <c r="AJ36" s="51"/>
-      <c r="AK36" s="51"/>
-      <c r="AL36" s="51"/>
-      <c r="AM36" s="51"/>
-      <c r="AN36" s="51"/>
-      <c r="AO36" s="51"/>
-      <c r="AP36" s="51"/>
-      <c r="AQ36" s="51"/>
-      <c r="AR36" s="51"/>
-      <c r="AS36" s="51"/>
-      <c r="AT36" s="51"/>
-      <c r="AU36" s="51"/>
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="A36" s="123" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1"/>
       <c r="AV36" s="1"/>
       <c r="AW36" s="1"/>
       <c r="AX36" s="1"/>
@@ -3434,7 +3942,9 @@
       <c r="BF36" s="1"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="1"/>
+      <c r="A37" s="122" t="s">
+        <v>77</v>
+      </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -60673,1140 +61183,77 @@
       <c r="BE990" s="1"/>
       <c r="BF990" s="1"/>
     </row>
-    <row r="991" ht="14.25" customHeight="1">
-      <c r="A991" s="1"/>
-      <c r="B991" s="1"/>
-      <c r="C991" s="1"/>
-      <c r="D991" s="1"/>
-      <c r="E991" s="1"/>
-      <c r="F991" s="1"/>
-      <c r="G991" s="1"/>
-      <c r="H991" s="1"/>
-      <c r="I991" s="1"/>
-      <c r="J991" s="1"/>
-      <c r="K991" s="1"/>
-      <c r="L991" s="1"/>
-      <c r="M991" s="1"/>
-      <c r="N991" s="1"/>
-      <c r="O991" s="1"/>
-      <c r="P991" s="1"/>
-      <c r="Q991" s="1"/>
-      <c r="R991" s="1"/>
-      <c r="S991" s="1"/>
-      <c r="T991" s="1"/>
-      <c r="U991" s="1"/>
-      <c r="V991" s="1"/>
-      <c r="W991" s="1"/>
-      <c r="X991" s="1"/>
-      <c r="Y991" s="1"/>
-      <c r="Z991" s="1"/>
-      <c r="AA991" s="1"/>
-      <c r="AB991" s="1"/>
-      <c r="AC991" s="1"/>
-      <c r="AD991" s="1"/>
-      <c r="AE991" s="1"/>
-      <c r="AF991" s="1"/>
-      <c r="AG991" s="1"/>
-      <c r="AH991" s="1"/>
-      <c r="AI991" s="1"/>
-      <c r="AJ991" s="1"/>
-      <c r="AK991" s="1"/>
-      <c r="AL991" s="1"/>
-      <c r="AM991" s="1"/>
-      <c r="AN991" s="1"/>
-      <c r="AO991" s="1"/>
-      <c r="AP991" s="1"/>
-      <c r="AQ991" s="1"/>
-      <c r="AR991" s="1"/>
-      <c r="AS991" s="1"/>
-      <c r="AT991" s="1"/>
-      <c r="AU991" s="1"/>
-      <c r="AV991" s="1"/>
-      <c r="AW991" s="1"/>
-      <c r="AX991" s="1"/>
-      <c r="AY991" s="1"/>
-      <c r="AZ991" s="1"/>
-      <c r="BA991" s="1"/>
-      <c r="BB991" s="1"/>
-      <c r="BC991" s="1"/>
-      <c r="BD991" s="1"/>
-      <c r="BE991" s="1"/>
-      <c r="BF991" s="1"/>
-    </row>
-    <row r="992" ht="14.25" customHeight="1">
-      <c r="A992" s="1"/>
-      <c r="B992" s="1"/>
-      <c r="C992" s="1"/>
-      <c r="D992" s="1"/>
-      <c r="E992" s="1"/>
-      <c r="F992" s="1"/>
-      <c r="G992" s="1"/>
-      <c r="H992" s="1"/>
-      <c r="I992" s="1"/>
-      <c r="J992" s="1"/>
-      <c r="K992" s="1"/>
-      <c r="L992" s="1"/>
-      <c r="M992" s="1"/>
-      <c r="N992" s="1"/>
-      <c r="O992" s="1"/>
-      <c r="P992" s="1"/>
-      <c r="Q992" s="1"/>
-      <c r="R992" s="1"/>
-      <c r="S992" s="1"/>
-      <c r="T992" s="1"/>
-      <c r="U992" s="1"/>
-      <c r="V992" s="1"/>
-      <c r="W992" s="1"/>
-      <c r="X992" s="1"/>
-      <c r="Y992" s="1"/>
-      <c r="Z992" s="1"/>
-      <c r="AA992" s="1"/>
-      <c r="AB992" s="1"/>
-      <c r="AC992" s="1"/>
-      <c r="AD992" s="1"/>
-      <c r="AE992" s="1"/>
-      <c r="AF992" s="1"/>
-      <c r="AG992" s="1"/>
-      <c r="AH992" s="1"/>
-      <c r="AI992" s="1"/>
-      <c r="AJ992" s="1"/>
-      <c r="AK992" s="1"/>
-      <c r="AL992" s="1"/>
-      <c r="AM992" s="1"/>
-      <c r="AN992" s="1"/>
-      <c r="AO992" s="1"/>
-      <c r="AP992" s="1"/>
-      <c r="AQ992" s="1"/>
-      <c r="AR992" s="1"/>
-      <c r="AS992" s="1"/>
-      <c r="AT992" s="1"/>
-      <c r="AU992" s="1"/>
-      <c r="AV992" s="1"/>
-      <c r="AW992" s="1"/>
-      <c r="AX992" s="1"/>
-      <c r="AY992" s="1"/>
-      <c r="AZ992" s="1"/>
-      <c r="BA992" s="1"/>
-      <c r="BB992" s="1"/>
-      <c r="BC992" s="1"/>
-      <c r="BD992" s="1"/>
-      <c r="BE992" s="1"/>
-      <c r="BF992" s="1"/>
-    </row>
-    <row r="993" ht="14.25" customHeight="1">
-      <c r="A993" s="1"/>
-      <c r="B993" s="1"/>
-      <c r="C993" s="1"/>
-      <c r="D993" s="1"/>
-      <c r="E993" s="1"/>
-      <c r="F993" s="1"/>
-      <c r="G993" s="1"/>
-      <c r="H993" s="1"/>
-      <c r="I993" s="1"/>
-      <c r="J993" s="1"/>
-      <c r="K993" s="1"/>
-      <c r="L993" s="1"/>
-      <c r="M993" s="1"/>
-      <c r="N993" s="1"/>
-      <c r="O993" s="1"/>
-      <c r="P993" s="1"/>
-      <c r="Q993" s="1"/>
-      <c r="R993" s="1"/>
-      <c r="S993" s="1"/>
-      <c r="T993" s="1"/>
-      <c r="U993" s="1"/>
-      <c r="V993" s="1"/>
-      <c r="W993" s="1"/>
-      <c r="X993" s="1"/>
-      <c r="Y993" s="1"/>
-      <c r="Z993" s="1"/>
-      <c r="AA993" s="1"/>
-      <c r="AB993" s="1"/>
-      <c r="AC993" s="1"/>
-      <c r="AD993" s="1"/>
-      <c r="AE993" s="1"/>
-      <c r="AF993" s="1"/>
-      <c r="AG993" s="1"/>
-      <c r="AH993" s="1"/>
-      <c r="AI993" s="1"/>
-      <c r="AJ993" s="1"/>
-      <c r="AK993" s="1"/>
-      <c r="AL993" s="1"/>
-      <c r="AM993" s="1"/>
-      <c r="AN993" s="1"/>
-      <c r="AO993" s="1"/>
-      <c r="AP993" s="1"/>
-      <c r="AQ993" s="1"/>
-      <c r="AR993" s="1"/>
-      <c r="AS993" s="1"/>
-      <c r="AT993" s="1"/>
-      <c r="AU993" s="1"/>
-      <c r="AV993" s="1"/>
-      <c r="AW993" s="1"/>
-      <c r="AX993" s="1"/>
-      <c r="AY993" s="1"/>
-      <c r="AZ993" s="1"/>
-      <c r="BA993" s="1"/>
-      <c r="BB993" s="1"/>
-      <c r="BC993" s="1"/>
-      <c r="BD993" s="1"/>
-      <c r="BE993" s="1"/>
-      <c r="BF993" s="1"/>
-    </row>
-    <row r="994" ht="14.25" customHeight="1">
-      <c r="A994" s="1"/>
-      <c r="B994" s="1"/>
-      <c r="C994" s="1"/>
-      <c r="D994" s="1"/>
-      <c r="E994" s="1"/>
-      <c r="F994" s="1"/>
-      <c r="G994" s="1"/>
-      <c r="H994" s="1"/>
-      <c r="I994" s="1"/>
-      <c r="J994" s="1"/>
-      <c r="K994" s="1"/>
-      <c r="L994" s="1"/>
-      <c r="M994" s="1"/>
-      <c r="N994" s="1"/>
-      <c r="O994" s="1"/>
-      <c r="P994" s="1"/>
-      <c r="Q994" s="1"/>
-      <c r="R994" s="1"/>
-      <c r="S994" s="1"/>
-      <c r="T994" s="1"/>
-      <c r="U994" s="1"/>
-      <c r="V994" s="1"/>
-      <c r="W994" s="1"/>
-      <c r="X994" s="1"/>
-      <c r="Y994" s="1"/>
-      <c r="Z994" s="1"/>
-      <c r="AA994" s="1"/>
-      <c r="AB994" s="1"/>
-      <c r="AC994" s="1"/>
-      <c r="AD994" s="1"/>
-      <c r="AE994" s="1"/>
-      <c r="AF994" s="1"/>
-      <c r="AG994" s="1"/>
-      <c r="AH994" s="1"/>
-      <c r="AI994" s="1"/>
-      <c r="AJ994" s="1"/>
-      <c r="AK994" s="1"/>
-      <c r="AL994" s="1"/>
-      <c r="AM994" s="1"/>
-      <c r="AN994" s="1"/>
-      <c r="AO994" s="1"/>
-      <c r="AP994" s="1"/>
-      <c r="AQ994" s="1"/>
-      <c r="AR994" s="1"/>
-      <c r="AS994" s="1"/>
-      <c r="AT994" s="1"/>
-      <c r="AU994" s="1"/>
-      <c r="AV994" s="1"/>
-      <c r="AW994" s="1"/>
-      <c r="AX994" s="1"/>
-      <c r="AY994" s="1"/>
-      <c r="AZ994" s="1"/>
-      <c r="BA994" s="1"/>
-      <c r="BB994" s="1"/>
-      <c r="BC994" s="1"/>
-      <c r="BD994" s="1"/>
-      <c r="BE994" s="1"/>
-      <c r="BF994" s="1"/>
-    </row>
-    <row r="995" ht="14.25" customHeight="1">
-      <c r="A995" s="1"/>
-      <c r="B995" s="1"/>
-      <c r="C995" s="1"/>
-      <c r="D995" s="1"/>
-      <c r="E995" s="1"/>
-      <c r="F995" s="1"/>
-      <c r="G995" s="1"/>
-      <c r="H995" s="1"/>
-      <c r="I995" s="1"/>
-      <c r="J995" s="1"/>
-      <c r="K995" s="1"/>
-      <c r="L995" s="1"/>
-      <c r="M995" s="1"/>
-      <c r="N995" s="1"/>
-      <c r="O995" s="1"/>
-      <c r="P995" s="1"/>
-      <c r="Q995" s="1"/>
-      <c r="R995" s="1"/>
-      <c r="S995" s="1"/>
-      <c r="T995" s="1"/>
-      <c r="U995" s="1"/>
-      <c r="V995" s="1"/>
-      <c r="W995" s="1"/>
-      <c r="X995" s="1"/>
-      <c r="Y995" s="1"/>
-      <c r="Z995" s="1"/>
-      <c r="AA995" s="1"/>
-      <c r="AB995" s="1"/>
-      <c r="AC995" s="1"/>
-      <c r="AD995" s="1"/>
-      <c r="AE995" s="1"/>
-      <c r="AF995" s="1"/>
-      <c r="AG995" s="1"/>
-      <c r="AH995" s="1"/>
-      <c r="AI995" s="1"/>
-      <c r="AJ995" s="1"/>
-      <c r="AK995" s="1"/>
-      <c r="AL995" s="1"/>
-      <c r="AM995" s="1"/>
-      <c r="AN995" s="1"/>
-      <c r="AO995" s="1"/>
-      <c r="AP995" s="1"/>
-      <c r="AQ995" s="1"/>
-      <c r="AR995" s="1"/>
-      <c r="AS995" s="1"/>
-      <c r="AT995" s="1"/>
-      <c r="AU995" s="1"/>
-      <c r="AV995" s="1"/>
-      <c r="AW995" s="1"/>
-      <c r="AX995" s="1"/>
-      <c r="AY995" s="1"/>
-      <c r="AZ995" s="1"/>
-      <c r="BA995" s="1"/>
-      <c r="BB995" s="1"/>
-      <c r="BC995" s="1"/>
-      <c r="BD995" s="1"/>
-      <c r="BE995" s="1"/>
-      <c r="BF995" s="1"/>
-    </row>
-    <row r="996" ht="14.25" customHeight="1">
-      <c r="A996" s="1"/>
-      <c r="B996" s="1"/>
-      <c r="C996" s="1"/>
-      <c r="D996" s="1"/>
-      <c r="E996" s="1"/>
-      <c r="F996" s="1"/>
-      <c r="G996" s="1"/>
-      <c r="H996" s="1"/>
-      <c r="I996" s="1"/>
-      <c r="J996" s="1"/>
-      <c r="K996" s="1"/>
-      <c r="L996" s="1"/>
-      <c r="M996" s="1"/>
-      <c r="N996" s="1"/>
-      <c r="O996" s="1"/>
-      <c r="P996" s="1"/>
-      <c r="Q996" s="1"/>
-      <c r="R996" s="1"/>
-      <c r="S996" s="1"/>
-      <c r="T996" s="1"/>
-      <c r="U996" s="1"/>
-      <c r="V996" s="1"/>
-      <c r="W996" s="1"/>
-      <c r="X996" s="1"/>
-      <c r="Y996" s="1"/>
-      <c r="Z996" s="1"/>
-      <c r="AA996" s="1"/>
-      <c r="AB996" s="1"/>
-      <c r="AC996" s="1"/>
-      <c r="AD996" s="1"/>
-      <c r="AE996" s="1"/>
-      <c r="AF996" s="1"/>
-      <c r="AG996" s="1"/>
-      <c r="AH996" s="1"/>
-      <c r="AI996" s="1"/>
-      <c r="AJ996" s="1"/>
-      <c r="AK996" s="1"/>
-      <c r="AL996" s="1"/>
-      <c r="AM996" s="1"/>
-      <c r="AN996" s="1"/>
-      <c r="AO996" s="1"/>
-      <c r="AP996" s="1"/>
-      <c r="AQ996" s="1"/>
-      <c r="AR996" s="1"/>
-      <c r="AS996" s="1"/>
-      <c r="AT996" s="1"/>
-      <c r="AU996" s="1"/>
-      <c r="AV996" s="1"/>
-      <c r="AW996" s="1"/>
-      <c r="AX996" s="1"/>
-      <c r="AY996" s="1"/>
-      <c r="AZ996" s="1"/>
-      <c r="BA996" s="1"/>
-      <c r="BB996" s="1"/>
-      <c r="BC996" s="1"/>
-      <c r="BD996" s="1"/>
-      <c r="BE996" s="1"/>
-      <c r="BF996" s="1"/>
-    </row>
-    <row r="997" ht="14.25" customHeight="1">
-      <c r="A997" s="1"/>
-      <c r="B997" s="1"/>
-      <c r="C997" s="1"/>
-      <c r="D997" s="1"/>
-      <c r="E997" s="1"/>
-      <c r="F997" s="1"/>
-      <c r="G997" s="1"/>
-      <c r="H997" s="1"/>
-      <c r="I997" s="1"/>
-      <c r="J997" s="1"/>
-      <c r="K997" s="1"/>
-      <c r="L997" s="1"/>
-      <c r="M997" s="1"/>
-      <c r="N997" s="1"/>
-      <c r="O997" s="1"/>
-      <c r="P997" s="1"/>
-      <c r="Q997" s="1"/>
-      <c r="R997" s="1"/>
-      <c r="S997" s="1"/>
-      <c r="T997" s="1"/>
-      <c r="U997" s="1"/>
-      <c r="V997" s="1"/>
-      <c r="W997" s="1"/>
-      <c r="X997" s="1"/>
-      <c r="Y997" s="1"/>
-      <c r="Z997" s="1"/>
-      <c r="AA997" s="1"/>
-      <c r="AB997" s="1"/>
-      <c r="AC997" s="1"/>
-      <c r="AD997" s="1"/>
-      <c r="AE997" s="1"/>
-      <c r="AF997" s="1"/>
-      <c r="AG997" s="1"/>
-      <c r="AH997" s="1"/>
-      <c r="AI997" s="1"/>
-      <c r="AJ997" s="1"/>
-      <c r="AK997" s="1"/>
-      <c r="AL997" s="1"/>
-      <c r="AM997" s="1"/>
-      <c r="AN997" s="1"/>
-      <c r="AO997" s="1"/>
-      <c r="AP997" s="1"/>
-      <c r="AQ997" s="1"/>
-      <c r="AR997" s="1"/>
-      <c r="AS997" s="1"/>
-      <c r="AT997" s="1"/>
-      <c r="AU997" s="1"/>
-      <c r="AV997" s="1"/>
-      <c r="AW997" s="1"/>
-      <c r="AX997" s="1"/>
-      <c r="AY997" s="1"/>
-      <c r="AZ997" s="1"/>
-      <c r="BA997" s="1"/>
-      <c r="BB997" s="1"/>
-      <c r="BC997" s="1"/>
-      <c r="BD997" s="1"/>
-      <c r="BE997" s="1"/>
-      <c r="BF997" s="1"/>
-    </row>
-    <row r="998" ht="14.25" customHeight="1">
-      <c r="A998" s="1"/>
-      <c r="B998" s="1"/>
-      <c r="C998" s="1"/>
-      <c r="D998" s="1"/>
-      <c r="E998" s="1"/>
-      <c r="F998" s="1"/>
-      <c r="G998" s="1"/>
-      <c r="H998" s="1"/>
-      <c r="I998" s="1"/>
-      <c r="J998" s="1"/>
-      <c r="K998" s="1"/>
-      <c r="L998" s="1"/>
-      <c r="M998" s="1"/>
-      <c r="N998" s="1"/>
-      <c r="O998" s="1"/>
-      <c r="P998" s="1"/>
-      <c r="Q998" s="1"/>
-      <c r="R998" s="1"/>
-      <c r="S998" s="1"/>
-      <c r="T998" s="1"/>
-      <c r="U998" s="1"/>
-      <c r="V998" s="1"/>
-      <c r="W998" s="1"/>
-      <c r="X998" s="1"/>
-      <c r="Y998" s="1"/>
-      <c r="Z998" s="1"/>
-      <c r="AA998" s="1"/>
-      <c r="AB998" s="1"/>
-      <c r="AC998" s="1"/>
-      <c r="AD998" s="1"/>
-      <c r="AE998" s="1"/>
-      <c r="AF998" s="1"/>
-      <c r="AG998" s="1"/>
-      <c r="AH998" s="1"/>
-      <c r="AI998" s="1"/>
-      <c r="AJ998" s="1"/>
-      <c r="AK998" s="1"/>
-      <c r="AL998" s="1"/>
-      <c r="AM998" s="1"/>
-      <c r="AN998" s="1"/>
-      <c r="AO998" s="1"/>
-      <c r="AP998" s="1"/>
-      <c r="AQ998" s="1"/>
-      <c r="AR998" s="1"/>
-      <c r="AS998" s="1"/>
-      <c r="AT998" s="1"/>
-      <c r="AU998" s="1"/>
-      <c r="AV998" s="1"/>
-      <c r="AW998" s="1"/>
-      <c r="AX998" s="1"/>
-      <c r="AY998" s="1"/>
-      <c r="AZ998" s="1"/>
-      <c r="BA998" s="1"/>
-      <c r="BB998" s="1"/>
-      <c r="BC998" s="1"/>
-      <c r="BD998" s="1"/>
-      <c r="BE998" s="1"/>
-      <c r="BF998" s="1"/>
-    </row>
-    <row r="999" ht="14.25" customHeight="1">
-      <c r="A999" s="1"/>
-      <c r="B999" s="1"/>
-      <c r="C999" s="1"/>
-      <c r="D999" s="1"/>
-      <c r="E999" s="1"/>
-      <c r="F999" s="1"/>
-      <c r="G999" s="1"/>
-      <c r="H999" s="1"/>
-      <c r="I999" s="1"/>
-      <c r="J999" s="1"/>
-      <c r="K999" s="1"/>
-      <c r="L999" s="1"/>
-      <c r="M999" s="1"/>
-      <c r="N999" s="1"/>
-      <c r="O999" s="1"/>
-      <c r="P999" s="1"/>
-      <c r="Q999" s="1"/>
-      <c r="R999" s="1"/>
-      <c r="S999" s="1"/>
-      <c r="T999" s="1"/>
-      <c r="U999" s="1"/>
-      <c r="V999" s="1"/>
-      <c r="W999" s="1"/>
-      <c r="X999" s="1"/>
-      <c r="Y999" s="1"/>
-      <c r="Z999" s="1"/>
-      <c r="AA999" s="1"/>
-      <c r="AB999" s="1"/>
-      <c r="AC999" s="1"/>
-      <c r="AD999" s="1"/>
-      <c r="AE999" s="1"/>
-      <c r="AF999" s="1"/>
-      <c r="AG999" s="1"/>
-      <c r="AH999" s="1"/>
-      <c r="AI999" s="1"/>
-      <c r="AJ999" s="1"/>
-      <c r="AK999" s="1"/>
-      <c r="AL999" s="1"/>
-      <c r="AM999" s="1"/>
-      <c r="AN999" s="1"/>
-      <c r="AO999" s="1"/>
-      <c r="AP999" s="1"/>
-      <c r="AQ999" s="1"/>
-      <c r="AR999" s="1"/>
-      <c r="AS999" s="1"/>
-      <c r="AT999" s="1"/>
-      <c r="AU999" s="1"/>
-      <c r="AV999" s="1"/>
-      <c r="AW999" s="1"/>
-      <c r="AX999" s="1"/>
-      <c r="AY999" s="1"/>
-      <c r="AZ999" s="1"/>
-      <c r="BA999" s="1"/>
-      <c r="BB999" s="1"/>
-      <c r="BC999" s="1"/>
-      <c r="BD999" s="1"/>
-      <c r="BE999" s="1"/>
-      <c r="BF999" s="1"/>
-    </row>
-    <row r="1000" ht="14.25" customHeight="1">
-      <c r="A1000" s="1"/>
-      <c r="B1000" s="1"/>
-      <c r="C1000" s="1"/>
-      <c r="D1000" s="1"/>
-      <c r="E1000" s="1"/>
-      <c r="F1000" s="1"/>
-      <c r="G1000" s="1"/>
-      <c r="H1000" s="1"/>
-      <c r="I1000" s="1"/>
-      <c r="J1000" s="1"/>
-      <c r="K1000" s="1"/>
-      <c r="L1000" s="1"/>
-      <c r="M1000" s="1"/>
-      <c r="N1000" s="1"/>
-      <c r="O1000" s="1"/>
-      <c r="P1000" s="1"/>
-      <c r="Q1000" s="1"/>
-      <c r="R1000" s="1"/>
-      <c r="S1000" s="1"/>
-      <c r="T1000" s="1"/>
-      <c r="U1000" s="1"/>
-      <c r="V1000" s="1"/>
-      <c r="W1000" s="1"/>
-      <c r="X1000" s="1"/>
-      <c r="Y1000" s="1"/>
-      <c r="Z1000" s="1"/>
-      <c r="AA1000" s="1"/>
-      <c r="AB1000" s="1"/>
-      <c r="AC1000" s="1"/>
-      <c r="AD1000" s="1"/>
-      <c r="AE1000" s="1"/>
-      <c r="AF1000" s="1"/>
-      <c r="AG1000" s="1"/>
-      <c r="AH1000" s="1"/>
-      <c r="AI1000" s="1"/>
-      <c r="AJ1000" s="1"/>
-      <c r="AK1000" s="1"/>
-      <c r="AL1000" s="1"/>
-      <c r="AM1000" s="1"/>
-      <c r="AN1000" s="1"/>
-      <c r="AO1000" s="1"/>
-      <c r="AP1000" s="1"/>
-      <c r="AQ1000" s="1"/>
-      <c r="AR1000" s="1"/>
-      <c r="AS1000" s="1"/>
-      <c r="AT1000" s="1"/>
-      <c r="AU1000" s="1"/>
-      <c r="AV1000" s="1"/>
-      <c r="AW1000" s="1"/>
-      <c r="AX1000" s="1"/>
-      <c r="AY1000" s="1"/>
-      <c r="AZ1000" s="1"/>
-      <c r="BA1000" s="1"/>
-      <c r="BB1000" s="1"/>
-      <c r="BC1000" s="1"/>
-      <c r="BD1000" s="1"/>
-      <c r="BE1000" s="1"/>
-      <c r="BF1000" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="532">
-    <mergeCell ref="AC11:AQ11"/>
-    <mergeCell ref="AR11:AS11"/>
-    <mergeCell ref="AQ12:AQ15"/>
-    <mergeCell ref="AR12:AR15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
+  <mergeCells count="69">
+    <mergeCell ref="D11:G13"/>
     <mergeCell ref="H11:L13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:C13"/>
+    <mergeCell ref="D10:Q10"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="A2:AU2"/>
+    <mergeCell ref="A3:AU3"/>
+    <mergeCell ref="A4:AU4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
     <mergeCell ref="M11:M15"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="AH17:AH18"/>
-    <mergeCell ref="AI17:AI18"/>
-    <mergeCell ref="AJ17:AJ18"/>
-    <mergeCell ref="AK17:AK18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AF20"/>
-    <mergeCell ref="AG19:AG20"/>
-    <mergeCell ref="AH19:AH20"/>
-    <mergeCell ref="AI19:AI20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="Z21:Z22"/>
-    <mergeCell ref="AA21:AA22"/>
-    <mergeCell ref="AB21:AB22"/>
-    <mergeCell ref="AC21:AC22"/>
-    <mergeCell ref="AD21:AD22"/>
-    <mergeCell ref="AE21:AE22"/>
-    <mergeCell ref="AF21:AF22"/>
-    <mergeCell ref="AG21:AG22"/>
-    <mergeCell ref="AH21:AH22"/>
-    <mergeCell ref="AI21:AI22"/>
-    <mergeCell ref="AQ21:AQ22"/>
-    <mergeCell ref="AR21:AR22"/>
-    <mergeCell ref="AS21:AS22"/>
-    <mergeCell ref="AT21:AT22"/>
-    <mergeCell ref="AU21:AU22"/>
-    <mergeCell ref="AJ21:AJ22"/>
-    <mergeCell ref="AK21:AK22"/>
-    <mergeCell ref="AL21:AL22"/>
-    <mergeCell ref="AM21:AM22"/>
-    <mergeCell ref="AN21:AN22"/>
-    <mergeCell ref="AO21:AO22"/>
-    <mergeCell ref="AP21:AP22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="AA23:AA24"/>
-    <mergeCell ref="AB23:AB24"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="AD23:AD24"/>
-    <mergeCell ref="AE23:AE24"/>
-    <mergeCell ref="AF23:AF24"/>
-    <mergeCell ref="AG23:AG24"/>
-    <mergeCell ref="AH23:AH24"/>
-    <mergeCell ref="AI23:AI24"/>
-    <mergeCell ref="AQ23:AQ24"/>
-    <mergeCell ref="AR23:AR24"/>
-    <mergeCell ref="AS23:AS24"/>
-    <mergeCell ref="AT23:AT24"/>
-    <mergeCell ref="AU23:AU24"/>
-    <mergeCell ref="AJ23:AJ24"/>
-    <mergeCell ref="AK23:AK24"/>
-    <mergeCell ref="AL23:AL24"/>
-    <mergeCell ref="AM23:AM24"/>
-    <mergeCell ref="AN23:AN24"/>
-    <mergeCell ref="AO23:AO24"/>
-    <mergeCell ref="AP23:AP24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y25:Y26"/>
-    <mergeCell ref="Z25:Z26"/>
-    <mergeCell ref="AA25:AA26"/>
-    <mergeCell ref="AB25:AB26"/>
-    <mergeCell ref="AC25:AC26"/>
-    <mergeCell ref="AD25:AD26"/>
-    <mergeCell ref="AE25:AE26"/>
-    <mergeCell ref="AF25:AF26"/>
-    <mergeCell ref="AG25:AG26"/>
-    <mergeCell ref="AH25:AH26"/>
-    <mergeCell ref="AI25:AI26"/>
-    <mergeCell ref="AQ25:AQ26"/>
-    <mergeCell ref="AR25:AR26"/>
-    <mergeCell ref="AS25:AS26"/>
-    <mergeCell ref="AT25:AT26"/>
-    <mergeCell ref="AU25:AU26"/>
-    <mergeCell ref="AJ25:AJ26"/>
-    <mergeCell ref="AK25:AK26"/>
-    <mergeCell ref="AL25:AL26"/>
-    <mergeCell ref="AM25:AM26"/>
-    <mergeCell ref="AN25:AN26"/>
-    <mergeCell ref="AO25:AO26"/>
-    <mergeCell ref="AP25:AP26"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="Z27:Z28"/>
-    <mergeCell ref="AA27:AA28"/>
-    <mergeCell ref="AB27:AB28"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="AD27:AD28"/>
-    <mergeCell ref="AE27:AE28"/>
-    <mergeCell ref="AF27:AF28"/>
-    <mergeCell ref="AG27:AG28"/>
-    <mergeCell ref="AH27:AH28"/>
-    <mergeCell ref="AI27:AI28"/>
-    <mergeCell ref="AQ27:AQ28"/>
-    <mergeCell ref="AR27:AR28"/>
-    <mergeCell ref="AS27:AS28"/>
-    <mergeCell ref="AT27:AT28"/>
-    <mergeCell ref="AU27:AU28"/>
-    <mergeCell ref="AJ27:AJ28"/>
-    <mergeCell ref="AK27:AK28"/>
-    <mergeCell ref="AL27:AL28"/>
-    <mergeCell ref="AM27:AM28"/>
-    <mergeCell ref="AN27:AN28"/>
-    <mergeCell ref="AO27:AO28"/>
-    <mergeCell ref="AP27:AP28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="T29:T30"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="V29:V30"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="Z29:Z30"/>
-    <mergeCell ref="AA29:AA30"/>
-    <mergeCell ref="AB29:AB30"/>
-    <mergeCell ref="AC29:AC30"/>
-    <mergeCell ref="AD29:AD30"/>
-    <mergeCell ref="AE29:AE30"/>
-    <mergeCell ref="AF29:AF30"/>
-    <mergeCell ref="AG29:AG30"/>
-    <mergeCell ref="AH29:AH30"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="AQ29:AQ30"/>
-    <mergeCell ref="AR29:AR30"/>
-    <mergeCell ref="AS29:AS30"/>
-    <mergeCell ref="AT29:AT30"/>
-    <mergeCell ref="AU29:AU30"/>
-    <mergeCell ref="AJ29:AJ30"/>
-    <mergeCell ref="AK29:AK30"/>
-    <mergeCell ref="AL29:AL30"/>
-    <mergeCell ref="AM29:AM30"/>
-    <mergeCell ref="AN29:AN30"/>
-    <mergeCell ref="AO29:AO30"/>
-    <mergeCell ref="AP29:AP30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="R31:R32"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="T31:T32"/>
-    <mergeCell ref="U31:U32"/>
-    <mergeCell ref="V31:V32"/>
-    <mergeCell ref="W31:W32"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="Y31:Y32"/>
-    <mergeCell ref="Z31:Z32"/>
-    <mergeCell ref="AA31:AA32"/>
-    <mergeCell ref="AB31:AB32"/>
-    <mergeCell ref="AC31:AC32"/>
-    <mergeCell ref="AD31:AD32"/>
-    <mergeCell ref="AE31:AE32"/>
-    <mergeCell ref="AF31:AF32"/>
-    <mergeCell ref="AG31:AG32"/>
-    <mergeCell ref="AH31:AH32"/>
-    <mergeCell ref="AI31:AI32"/>
-    <mergeCell ref="AQ31:AQ32"/>
-    <mergeCell ref="AR31:AR32"/>
-    <mergeCell ref="AS31:AS32"/>
-    <mergeCell ref="AT31:AT32"/>
-    <mergeCell ref="AU31:AU32"/>
-    <mergeCell ref="AJ31:AJ32"/>
-    <mergeCell ref="AK31:AK32"/>
-    <mergeCell ref="AL31:AL32"/>
-    <mergeCell ref="AM31:AM32"/>
-    <mergeCell ref="AN31:AN32"/>
-    <mergeCell ref="AO31:AO32"/>
-    <mergeCell ref="AP31:AP32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="D10:Q10"/>
+    <mergeCell ref="N11:N15"/>
+    <mergeCell ref="O11:O15"/>
+    <mergeCell ref="P11:Q13"/>
+    <mergeCell ref="X11:X15"/>
+    <mergeCell ref="Y11:Z13"/>
+    <mergeCell ref="AA11:AB13"/>
     <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
     <mergeCell ref="AG14:AH14"/>
     <mergeCell ref="AI14:AJ14"/>
     <mergeCell ref="AK14:AL14"/>
     <mergeCell ref="AM14:AN14"/>
-    <mergeCell ref="A2:AU2"/>
-    <mergeCell ref="A3:AU3"/>
-    <mergeCell ref="A4:AU4"/>
-    <mergeCell ref="A5:AU5"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="X10:AT10"/>
+    <mergeCell ref="AC11:AQ11"/>
+    <mergeCell ref="AR11:AS11"/>
+    <mergeCell ref="R10:W10"/>
     <mergeCell ref="AU10:AU15"/>
+    <mergeCell ref="R11:R15"/>
+    <mergeCell ref="S11:T13"/>
+    <mergeCell ref="W11:W15"/>
     <mergeCell ref="AT11:AT15"/>
-    <mergeCell ref="Y11:Z13"/>
-    <mergeCell ref="AA11:AB13"/>
-    <mergeCell ref="W11:W15"/>
-    <mergeCell ref="X11:X15"/>
+    <mergeCell ref="AS12:AS15"/>
+    <mergeCell ref="AG12:AN12"/>
+    <mergeCell ref="AO12:AP14"/>
+    <mergeCell ref="AG13:AJ13"/>
+    <mergeCell ref="AK13:AN13"/>
+    <mergeCell ref="AQ12:AQ15"/>
+    <mergeCell ref="AR12:AR15"/>
+    <mergeCell ref="U11:V13"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U14:U15"/>
     <mergeCell ref="V14:V15"/>
     <mergeCell ref="Y14:Y15"/>
     <mergeCell ref="Z14:Z15"/>
     <mergeCell ref="AA14:AA15"/>
     <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="R10:W10"/>
-    <mergeCell ref="X10:AT10"/>
-    <mergeCell ref="N11:N15"/>
-    <mergeCell ref="O11:O15"/>
-    <mergeCell ref="P11:Q13"/>
-    <mergeCell ref="R11:R15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="S11:T13"/>
-    <mergeCell ref="U11:V13"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="B10:C13"/>
-    <mergeCell ref="D11:G13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AB17:AB18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="AG12:AN12"/>
-    <mergeCell ref="AO12:AP14"/>
-    <mergeCell ref="AG13:AJ13"/>
-    <mergeCell ref="AK13:AN13"/>
-    <mergeCell ref="AL17:AL18"/>
-    <mergeCell ref="AM17:AM18"/>
-    <mergeCell ref="AN17:AN18"/>
-    <mergeCell ref="AO17:AO18"/>
-    <mergeCell ref="AP17:AP18"/>
-    <mergeCell ref="AQ17:AQ18"/>
-    <mergeCell ref="AR17:AR18"/>
-    <mergeCell ref="AS17:AS18"/>
-    <mergeCell ref="AT17:AT18"/>
-    <mergeCell ref="AU17:AU18"/>
-    <mergeCell ref="AS12:AS15"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="AE17:AE18"/>
-    <mergeCell ref="AF17:AF18"/>
-    <mergeCell ref="AG17:AG18"/>
-    <mergeCell ref="AQ19:AQ20"/>
-    <mergeCell ref="AR19:AR20"/>
-    <mergeCell ref="AS19:AS20"/>
-    <mergeCell ref="AT19:AT20"/>
-    <mergeCell ref="AU19:AU20"/>
-    <mergeCell ref="AJ19:AJ20"/>
-    <mergeCell ref="AK19:AK20"/>
-    <mergeCell ref="AL19:AL20"/>
-    <mergeCell ref="AM19:AM20"/>
-    <mergeCell ref="AN19:AN20"/>
-    <mergeCell ref="AO19:AO20"/>
-    <mergeCell ref="AP19:AP20"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="T35:T36"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
-    <mergeCell ref="W35:W36"/>
-    <mergeCell ref="X35:X36"/>
-    <mergeCell ref="Y35:Y36"/>
-    <mergeCell ref="Z35:Z36"/>
-    <mergeCell ref="AA35:AA36"/>
-    <mergeCell ref="AB35:AB36"/>
-    <mergeCell ref="AC35:AC36"/>
-    <mergeCell ref="AD35:AD36"/>
-    <mergeCell ref="AE35:AE36"/>
-    <mergeCell ref="AF35:AF36"/>
-    <mergeCell ref="AG35:AG36"/>
-    <mergeCell ref="AH35:AH36"/>
-    <mergeCell ref="AI35:AI36"/>
-    <mergeCell ref="AQ35:AQ36"/>
-    <mergeCell ref="AR35:AR36"/>
-    <mergeCell ref="AS35:AS36"/>
-    <mergeCell ref="AT35:AT36"/>
-    <mergeCell ref="AU35:AU36"/>
-    <mergeCell ref="AJ35:AJ36"/>
-    <mergeCell ref="AK35:AK36"/>
-    <mergeCell ref="AL35:AL36"/>
-    <mergeCell ref="AM35:AM36"/>
-    <mergeCell ref="AN35:AN36"/>
-    <mergeCell ref="AO35:AO36"/>
-    <mergeCell ref="AP35:AP36"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="T33:T34"/>
-    <mergeCell ref="U33:U34"/>
-    <mergeCell ref="V33:V34"/>
-    <mergeCell ref="W33:W34"/>
-    <mergeCell ref="X33:X34"/>
-    <mergeCell ref="Y33:Y34"/>
-    <mergeCell ref="Z33:Z34"/>
-    <mergeCell ref="AA33:AA34"/>
-    <mergeCell ref="AB33:AB34"/>
-    <mergeCell ref="AC33:AC34"/>
-    <mergeCell ref="AD33:AD34"/>
-    <mergeCell ref="AE33:AE34"/>
-    <mergeCell ref="AF33:AF34"/>
-    <mergeCell ref="AG33:AG34"/>
-    <mergeCell ref="AH33:AH34"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="AQ33:AQ34"/>
-    <mergeCell ref="AR33:AR34"/>
-    <mergeCell ref="AS33:AS34"/>
-    <mergeCell ref="AT33:AT34"/>
-    <mergeCell ref="AU33:AU34"/>
-    <mergeCell ref="AJ33:AJ34"/>
-    <mergeCell ref="AK33:AK34"/>
-    <mergeCell ref="AL33:AL34"/>
-    <mergeCell ref="AM33:AM34"/>
-    <mergeCell ref="AN33:AN34"/>
-    <mergeCell ref="AO33:AO34"/>
-    <mergeCell ref="AP33:AP34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
